--- a/data_output/PYLL/PYLL_EU/EU_PYLL_All_age_groups_['Female', 'Male', 'Total']_static_over_90.xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_PYLL_All_age_groups_['Female', 'Male', 'Total']_static_over_90.xlsx
@@ -169,13 +169,13 @@
     <t>Total</t>
   </si>
   <si>
-    <t>18629.8 (±4427.1)</t>
-  </si>
-  <si>
-    <t>45475.8 (±5188.6)</t>
-  </si>
-  <si>
-    <t>64046.3 (±8020.5)</t>
+    <t>17576.3 (±4617.1)</t>
+  </si>
+  <si>
+    <t>44097.4 (±5709.2)</t>
+  </si>
+  <si>
+    <t>61632.1 (±8755.1)</t>
   </si>
   <si>
     <t>40659.3 (±6696.9)</t>
@@ -196,22 +196,22 @@
     <t>93952.7 (±24412.6)</t>
   </si>
   <si>
-    <t>74931.5 (±16832.1)</t>
-  </si>
-  <si>
-    <t>82093.2 (±19380.7)</t>
-  </si>
-  <si>
-    <t>158311.1 (±34108.9)</t>
-  </si>
-  <si>
-    <t>90923.3 (±15022.6)</t>
+    <t>74966.0 (±16832.1)</t>
+  </si>
+  <si>
+    <t>82101.5 (±19380.7)</t>
+  </si>
+  <si>
+    <t>158352.6 (±34108.9)</t>
+  </si>
+  <si>
+    <t>90977.4 (±15022.6)</t>
   </si>
   <si>
     <t>123396.6 (±17089.5)</t>
   </si>
   <si>
-    <t>221621.8 (±31090.5)</t>
+    <t>221671.0 (±31090.5)</t>
   </si>
   <si>
     <t>23453.1 (±8988.0)</t>
@@ -232,13 +232,13 @@
     <t>7398.7 (±3090.6)</t>
   </si>
   <si>
-    <t>84314.5 (±20195.3)</t>
-  </si>
-  <si>
-    <t>108259.0 (±21620.1)</t>
-  </si>
-  <si>
-    <t>198423.8 (±39891.6)</t>
+    <t>84348.1 (±20195.3)</t>
+  </si>
+  <si>
+    <t>108327.9 (±21620.1)</t>
+  </si>
+  <si>
+    <t>198531.1 (±39891.6)</t>
   </si>
   <si>
     <t>8905.9 (±3351.0)</t>
@@ -250,13 +250,13 @@
     <t>22966.1 (±9610.6)</t>
   </si>
   <si>
-    <t>6881.0 (±3326.7)</t>
-  </si>
-  <si>
-    <t>5569.1 (±2989.1)</t>
-  </si>
-  <si>
-    <t>12141.8 (±5981.7)</t>
+    <t>6944.5 (±3326.7)</t>
+  </si>
+  <si>
+    <t>5697.7 (±2989.1)</t>
+  </si>
+  <si>
+    <t>12344.7 (±5981.7)</t>
   </si>
   <si>
     <t>14107.8 (±6050.1)</t>
@@ -268,13 +268,13 @@
     <t>32789.5 (±12098.3)</t>
   </si>
   <si>
-    <t>267807.3 (±61937.7)</t>
-  </si>
-  <si>
-    <t>321358.2 (±74176.6)</t>
-  </si>
-  <si>
-    <t>602813.3 (±136360.7)</t>
+    <t>267999.1 (±61937.7)</t>
+  </si>
+  <si>
+    <t>321601.0 (±74176.6)</t>
+  </si>
+  <si>
+    <t>603257.9 (±136360.7)</t>
   </si>
   <si>
     <t>1417.1 (±1964.7)</t>
@@ -316,22 +316,22 @@
     <t>2561.2 (±1701.2)</t>
   </si>
   <si>
-    <t>411398.3 (±77971.2)</t>
-  </si>
-  <si>
-    <t>575411.5 (±71607.0)</t>
-  </si>
-  <si>
-    <t>1015369.3 (±145489.8)</t>
-  </si>
-  <si>
-    <t>5189.2 (±2209.3)</t>
-  </si>
-  <si>
-    <t>4532.3 (±2292.7)</t>
-  </si>
-  <si>
-    <t>9355.0 (±5804.5)</t>
+    <t>412124.7 (±77971.2)</t>
+  </si>
+  <si>
+    <t>576682.2 (±71607.0)</t>
+  </si>
+  <si>
+    <t>1017432.2 (±145489.8)</t>
+  </si>
+  <si>
+    <t>5535.9 (±2511.4)</t>
+  </si>
+  <si>
+    <t>5439.5 (±2936.5)</t>
+  </si>
+  <si>
+    <t>10887.4 (±5804.5)</t>
   </si>
   <si>
     <t>22362.2 (±8838.6)</t>
@@ -352,40 +352,40 @@
     <t>6352.4 (±3427.0)</t>
   </si>
   <si>
-    <t>2454.1 (±1474.6)</t>
-  </si>
-  <si>
-    <t>4021.9 (±1816.9)</t>
-  </si>
-  <si>
-    <t>6439.7 (±2852.5)</t>
-  </si>
-  <si>
-    <t>4084.9 (±1461.2)</t>
-  </si>
-  <si>
-    <t>6245.6 (±2425.0)</t>
-  </si>
-  <si>
-    <t>10349.8 (±2992.0)</t>
-  </si>
-  <si>
-    <t>76172.2 (±19315.3)</t>
-  </si>
-  <si>
-    <t>112428.4 (±22314.1)</t>
-  </si>
-  <si>
-    <t>188476.7 (±41679.9)</t>
-  </si>
-  <si>
-    <t>4553.7 (±3607.4)</t>
-  </si>
-  <si>
-    <t>6929.2 (±3520.3)</t>
-  </si>
-  <si>
-    <t>10711.0 (±7236.0)</t>
+    <t>2499.8 (±1474.6)</t>
+  </si>
+  <si>
+    <t>4015.3 (±1816.9)</t>
+  </si>
+  <si>
+    <t>6477.3 (±2852.5)</t>
+  </si>
+  <si>
+    <t>3834.8 (±1461.2)</t>
+  </si>
+  <si>
+    <t>5773.8 (±2425.0)</t>
+  </si>
+  <si>
+    <t>9637.8 (±2992.0)</t>
+  </si>
+  <si>
+    <t>76458.0 (±19220.1)</t>
+  </si>
+  <si>
+    <t>114090.3 (±22376.0)</t>
+  </si>
+  <si>
+    <t>190631.7 (±41656.0)</t>
+  </si>
+  <si>
+    <t>4613.7 (±3964.2)</t>
+  </si>
+  <si>
+    <t>6853.5 (±3521.4)</t>
+  </si>
+  <si>
+    <t>10676.7 (±7230.7)</t>
   </si>
   <si>
     <t>381506.1 (±77582.8)</t>
@@ -406,13 +406,13 @@
     <t>129446.9 (±27331.0)</t>
   </si>
   <si>
-    <t>182740.0 (±36133.3)</t>
-  </si>
-  <si>
-    <t>281551.3 (±44743.1)</t>
-  </si>
-  <si>
-    <t>484194.9 (±79512.2)</t>
+    <t>183274.3 (±36133.3)</t>
+  </si>
+  <si>
+    <t>282223.9 (±44743.1)</t>
+  </si>
+  <si>
+    <t>485440.7 (±79512.2)</t>
   </si>
   <si>
     <t>38529.1 (±13466.6)</t>
@@ -424,31 +424,31 @@
     <t>120014.1 (±35722.2)</t>
   </si>
   <si>
-    <t>34342.0 (±10003.5)</t>
-  </si>
-  <si>
-    <t>38962.7 (±7280.0)</t>
-  </si>
-  <si>
-    <t>74330.3 (±11753.5)</t>
-  </si>
-  <si>
-    <t>16580.8 (±4050.0)</t>
-  </si>
-  <si>
-    <t>18307.1 (±5002.2)</t>
-  </si>
-  <si>
-    <t>35371.4 (±7026.4)</t>
-  </si>
-  <si>
-    <t>375431.0 (±54170.1)</t>
-  </si>
-  <si>
-    <t>425242.3 (±59430.1)</t>
-  </si>
-  <si>
-    <t>816161.5 (±109504.1)</t>
+    <t>34360.2 (±10003.5)</t>
+  </si>
+  <si>
+    <t>38994.4 (±7280.0)</t>
+  </si>
+  <si>
+    <t>74381.8 (±11753.5)</t>
+  </si>
+  <si>
+    <t>16728.0 (±4050.0)</t>
+  </si>
+  <si>
+    <t>18560.5 (±5002.2)</t>
+  </si>
+  <si>
+    <t>35664.3 (±7026.4)</t>
+  </si>
+  <si>
+    <t>350345.8 (±54610.6)</t>
+  </si>
+  <si>
+    <t>406580.8 (±59430.1)</t>
+  </si>
+  <si>
+    <t>772956.8 (±110853.0)</t>
   </si>
   <si>
     <t>29796.4 (±6568.0)</t>
@@ -469,13 +469,13 @@
     <t>81204.6 (±16295.7)</t>
   </si>
   <si>
-    <t>9.08 (±0.69)</t>
-  </si>
-  <si>
-    <t>11.06 (±0.29)</t>
-  </si>
-  <si>
-    <t>10.39 (±0.37)</t>
+    <t>8.92 (±0.75)</t>
+  </si>
+  <si>
+    <t>10.88 (±0.38)</t>
+  </si>
+  <si>
+    <t>10.24 (±0.45)</t>
   </si>
   <si>
     <t>12.37 (±0.16)</t>
@@ -535,7 +535,7 @@
     <t>9.46 (±0.3)</t>
   </si>
   <si>
-    <t>10.05 (±0.43)</t>
+    <t>10.05 (±0.44)</t>
   </si>
   <si>
     <t>10.09 (±0.3)</t>
@@ -550,13 +550,13 @@
     <t>9.61 (±0.55)</t>
   </si>
   <si>
-    <t>10.58 (±1.05)</t>
-  </si>
-  <si>
-    <t>11.34 (±1.04)</t>
-  </si>
-  <si>
-    <t>11.04 (±0.89)</t>
+    <t>10.62 (±1.03)</t>
+  </si>
+  <si>
+    <t>11.46 (±0.99)</t>
+  </si>
+  <si>
+    <t>11.13 (±0.85)</t>
   </si>
   <si>
     <t>9.89 (±0.6)</t>
@@ -571,10 +571,10 @@
     <t>7.78 (±0.21)</t>
   </si>
   <si>
-    <t>9.09 (±0.37)</t>
-  </si>
-  <si>
-    <t>8.64 (±0.3)</t>
+    <t>9.1 (±0.36)</t>
+  </si>
+  <si>
+    <t>8.65 (±0.29)</t>
   </si>
   <si>
     <t>7.99 (±0.3)</t>
@@ -619,19 +619,19 @@
     <t>7.83 (±0.31)</t>
   </si>
   <si>
-    <t>9.89 (±0.19)</t>
-  </si>
-  <si>
-    <t>9.17 (±0.21)</t>
-  </si>
-  <si>
-    <t>6.65 (±0.02)</t>
-  </si>
-  <si>
-    <t>7.78 (±0.49)</t>
-  </si>
-  <si>
-    <t>7.12 (±0.65)</t>
+    <t>9.9 (±0.18)</t>
+  </si>
+  <si>
+    <t>9.17 (±0.22)</t>
+  </si>
+  <si>
+    <t>6.68 (±0.23)</t>
+  </si>
+  <si>
+    <t>8.27 (±0.8)</t>
+  </si>
+  <si>
+    <t>7.51 (±0.49)</t>
   </si>
   <si>
     <t>9.78 (±0.5)</t>
@@ -652,40 +652,40 @@
     <t>11.32 (±1.58)</t>
   </si>
   <si>
-    <t>9.52 (±1.95)</t>
-  </si>
-  <si>
-    <t>13.44 (±1.0)</t>
-  </si>
-  <si>
-    <t>11.69 (±1.37)</t>
-  </si>
-  <si>
-    <t>11.1 (±0.81)</t>
-  </si>
-  <si>
-    <t>10.53 (±0.8)</t>
-  </si>
-  <si>
-    <t>11.07 (±0.83)</t>
-  </si>
-  <si>
-    <t>8.99 (±0.74)</t>
-  </si>
-  <si>
-    <t>9.48 (±0.38)</t>
-  </si>
-  <si>
-    <t>9.31 (±0.58)</t>
-  </si>
-  <si>
-    <t>15.42 (±0.09)</t>
-  </si>
-  <si>
-    <t>11.84 (±0.2)</t>
-  </si>
-  <si>
-    <t>13.78 (±0.02)</t>
+    <t>9.55 (±1.92)</t>
+  </si>
+  <si>
+    <t>13.38 (±1.01)</t>
+  </si>
+  <si>
+    <t>11.65 (±1.37)</t>
+  </si>
+  <si>
+    <t>11.38 (±0.8)</t>
+  </si>
+  <si>
+    <t>10.63 (±0.83)</t>
+  </si>
+  <si>
+    <t>11.22 (±0.86)</t>
+  </si>
+  <si>
+    <t>8.99 (±0.73)</t>
+  </si>
+  <si>
+    <t>9.56 (±0.37)</t>
+  </si>
+  <si>
+    <t>9.37 (±0.57)</t>
+  </si>
+  <si>
+    <t>15.5 (±0.55)</t>
+  </si>
+  <si>
+    <t>11.86 (±0.22)</t>
+  </si>
+  <si>
+    <t>13.9 (±0.07)</t>
   </si>
   <si>
     <t>10.23 (±0.22)</t>
@@ -712,7 +712,7 @@
     <t>11.78 (±0.1)</t>
   </si>
   <si>
-    <t>12.01 (±0.0)</t>
+    <t>12.01 (±0.01)</t>
   </si>
   <si>
     <t>10.76 (±0.07)</t>
@@ -727,28 +727,28 @@
     <t>11.27 (±0.69)</t>
   </si>
   <si>
-    <t>10.66 (±0.44)</t>
-  </si>
-  <si>
-    <t>11.16 (±0.15)</t>
-  </si>
-  <si>
-    <t>7.64 (±0.53)</t>
-  </si>
-  <si>
-    <t>9.45 (±0.74)</t>
-  </si>
-  <si>
-    <t>8.63 (±0.41)</t>
-  </si>
-  <si>
-    <t>9.15 (±0.19)</t>
-  </si>
-  <si>
-    <t>10.3 (±0.13)</t>
-  </si>
-  <si>
-    <t>9.91 (±0.16)</t>
+    <t>10.67 (±0.43)</t>
+  </si>
+  <si>
+    <t>11.17 (±0.14)</t>
+  </si>
+  <si>
+    <t>7.66 (±0.52)</t>
+  </si>
+  <si>
+    <t>9.51 (±0.73)</t>
+  </si>
+  <si>
+    <t>8.65 (±0.41)</t>
+  </si>
+  <si>
+    <t>8.91 (±0.23)</t>
+  </si>
+  <si>
+    <t>10.36 (±0.14)</t>
+  </si>
+  <si>
+    <t>9.84 (±0.19)</t>
   </si>
   <si>
     <t>8.68 (±0.08)</t>
@@ -769,13 +769,13 @@
     <t>7.83 (±0.62)</t>
   </si>
   <si>
-    <t>1319.8 (±313.6)</t>
-  </si>
-  <si>
-    <t>3229.6 (±368.5)</t>
-  </si>
-  <si>
-    <t>2271.4 (±284.4)</t>
+    <t>1245.1 (±327.1)</t>
+  </si>
+  <si>
+    <t>3131.7 (±405.5)</t>
+  </si>
+  <si>
+    <t>2185.8 (±310.5)</t>
   </si>
   <si>
     <t>2633.0 (±433.7)</t>
@@ -796,22 +796,22 @@
     <t>1055.6 (±274.3)</t>
   </si>
   <si>
-    <t>1283.6 (±288.3)</t>
-  </si>
-  <si>
-    <t>1446.0 (±341.4)</t>
-  </si>
-  <si>
-    <t>1374.8 (±296.2)</t>
-  </si>
-  <si>
-    <t>2541.2 (±419.9)</t>
+    <t>1284.2 (±288.3)</t>
+  </si>
+  <si>
+    <t>1446.1 (±341.4)</t>
+  </si>
+  <si>
+    <t>1375.2 (±296.2)</t>
+  </si>
+  <si>
+    <t>2542.7 (±419.9)</t>
   </si>
   <si>
     <t>3663.4 (±507.3)</t>
   </si>
   <si>
-    <t>3190.5 (±447.6)</t>
+    <t>3191.2 (±447.6)</t>
   </si>
   <si>
     <t>1125.3 (±431.3)</t>
@@ -832,13 +832,13 @@
     <t>846.7 (±353.7)</t>
   </si>
   <si>
-    <t>1555.5 (±372.6)</t>
-  </si>
-  <si>
-    <t>2054.0 (±410.2)</t>
-  </si>
-  <si>
-    <t>1856.0 (±373.1)</t>
+    <t>1556.1 (±372.6)</t>
+  </si>
+  <si>
+    <t>2055.3 (±410.2)</t>
+  </si>
+  <si>
+    <t>1857.0 (±373.1)</t>
   </si>
   <si>
     <t>296.4 (±111.5)</t>
@@ -850,13 +850,13 @@
     <t>386.4 (±161.7)</t>
   </si>
   <si>
-    <t>984.2 (±475.8)</t>
-  </si>
-  <si>
-    <t>885.3 (±475.2)</t>
-  </si>
-  <si>
-    <t>914.1 (±450.4)</t>
+    <t>993.3 (±475.8)</t>
+  </si>
+  <si>
+    <t>905.7 (±475.2)</t>
+  </si>
+  <si>
+    <t>929.4 (±450.4)</t>
   </si>
   <si>
     <t>504.7 (±216.4)</t>
@@ -868,13 +868,13 @@
     <t>593.8 (±219.1)</t>
   </si>
   <si>
-    <t>770.9 (±178.3)</t>
-  </si>
-  <si>
-    <t>988.7 (±228.2)</t>
-  </si>
-  <si>
-    <t>896.5 (±202.8)</t>
+    <t>771.4 (±178.3)</t>
+  </si>
+  <si>
+    <t>989.5 (±228.2)</t>
+  </si>
+  <si>
+    <t>897.1 (±202.8)</t>
   </si>
   <si>
     <t>73.5 (±102.0)</t>
@@ -916,22 +916,22 @@
     <t>703.6 (±467.3)</t>
   </si>
   <si>
-    <t>1412.4 (±267.7)</t>
-  </si>
-  <si>
-    <t>2031.4 (±252.8)</t>
-  </si>
-  <si>
-    <t>1702.5 (±243.9)</t>
-  </si>
-  <si>
-    <t>505.5 (±215.2)</t>
-  </si>
-  <si>
-    <t>514.5 (±260.3)</t>
-  </si>
-  <si>
-    <t>490.4 (±304.3)</t>
+    <t>1414.9 (±267.7)</t>
+  </si>
+  <si>
+    <t>2035.9 (±252.8)</t>
+  </si>
+  <si>
+    <t>1705.9 (±243.9)</t>
+  </si>
+  <si>
+    <t>539.3 (±244.6)</t>
+  </si>
+  <si>
+    <t>617.5 (±333.4)</t>
+  </si>
+  <si>
+    <t>570.8 (±304.3)</t>
   </si>
   <si>
     <t>1502.6 (±593.9)</t>
@@ -952,40 +952,40 @@
     <t>1015.1 (±547.6)</t>
   </si>
   <si>
-    <t>987.6 (±593.4)</t>
-  </si>
-  <si>
-    <t>1514.6 (±684.2)</t>
-  </si>
-  <si>
-    <t>1252.8 (±554.9)</t>
-  </si>
-  <si>
-    <t>1300.0 (±465.0)</t>
-  </si>
-  <si>
-    <t>2032.1 (±789.0)</t>
-  </si>
-  <si>
-    <t>1665.2 (±481.4)</t>
-  </si>
-  <si>
-    <t>870.0 (±220.6)</t>
-  </si>
-  <si>
-    <t>1300.8 (±258.2)</t>
-  </si>
-  <si>
-    <t>1083.3 (±239.6)</t>
-  </si>
-  <si>
-    <t>171.1 (±135.5)</t>
-  </si>
-  <si>
-    <t>256.1 (±130.1)</t>
-  </si>
-  <si>
-    <t>199.6 (±134.8)</t>
+    <t>1006.0 (±593.4)</t>
+  </si>
+  <si>
+    <t>1512.1 (±684.2)</t>
+  </si>
+  <si>
+    <t>1260.1 (±554.9)</t>
+  </si>
+  <si>
+    <t>1220.5 (±465.0)</t>
+  </si>
+  <si>
+    <t>1878.6 (±789.0)</t>
+  </si>
+  <si>
+    <t>1550.6 (±481.4)</t>
+  </si>
+  <si>
+    <t>873.3 (±219.5)</t>
+  </si>
+  <si>
+    <t>1320.1 (±258.9)</t>
+  </si>
+  <si>
+    <t>1095.7 (±239.4)</t>
+  </si>
+  <si>
+    <t>173.4 (±149.0)</t>
+  </si>
+  <si>
+    <t>253.3 (±130.1)</t>
+  </si>
+  <si>
+    <t>198.9 (±134.7)</t>
   </si>
   <si>
     <t>1949.4 (±396.4)</t>
@@ -1006,13 +1006,13 @@
     <t>1258.8 (±265.8)</t>
   </si>
   <si>
-    <t>1853.8 (±366.6)</t>
-  </si>
-  <si>
-    <t>2977.8 (±473.2)</t>
-  </si>
-  <si>
-    <t>2507.2 (±411.7)</t>
+    <t>1859.3 (±366.6)</t>
+  </si>
+  <si>
+    <t>2984.9 (±473.2)</t>
+  </si>
+  <si>
+    <t>2513.6 (±411.7)</t>
   </si>
   <si>
     <t>1085.8 (±379.5)</t>
@@ -1024,31 +1024,31 @@
     <t>1734.3 (±516.2)</t>
   </si>
   <si>
-    <t>1230.4 (±358.4)</t>
-  </si>
-  <si>
-    <t>1462.3 (±273.2)</t>
-  </si>
-  <si>
-    <t>1362.5 (±215.4)</t>
-  </si>
-  <si>
-    <t>1588.4 (±388.0)</t>
-  </si>
-  <si>
-    <t>1743.3 (±476.3)</t>
-  </si>
-  <si>
-    <t>1689.2 (±335.5)</t>
-  </si>
-  <si>
-    <t>1557.6 (±224.7)</t>
-  </si>
-  <si>
-    <t>1834.6 (±256.4)</t>
-  </si>
-  <si>
-    <t>1726.1 (±231.6)</t>
+    <t>1231.1 (±358.4)</t>
+  </si>
+  <si>
+    <t>1463.5 (±273.2)</t>
+  </si>
+  <si>
+    <t>1363.4 (±215.4)</t>
+  </si>
+  <si>
+    <t>1602.5 (±388.0)</t>
+  </si>
+  <si>
+    <t>1767.4 (±476.3)</t>
+  </si>
+  <si>
+    <t>1703.2 (±335.5)</t>
+  </si>
+  <si>
+    <t>1453.5 (±226.6)</t>
+  </si>
+  <si>
+    <t>1754.1 (±256.4)</t>
+  </si>
+  <si>
+    <t>1634.7 (±234.4)</t>
   </si>
   <si>
     <t>580.7 (±128.0)</t>
@@ -1482,31 +1482,31 @@
         <v>48</v>
       </c>
       <c r="C2">
-        <v>2052.8</v>
+        <v>1969.8</v>
       </c>
       <c r="D2">
-        <v>308.2</v>
+        <v>325.4</v>
       </c>
       <c r="E2">
-        <v>18629.8</v>
+        <v>17576.3</v>
       </c>
       <c r="F2">
-        <v>4427.099999999999</v>
+        <v>4617.1</v>
       </c>
       <c r="G2">
-        <v>9.08</v>
+        <v>8.92</v>
       </c>
       <c r="H2">
-        <v>0.6899999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="I2">
         <v>1411583</v>
       </c>
       <c r="J2">
-        <v>1319.8</v>
+        <v>1245.1</v>
       </c>
       <c r="K2">
-        <v>313.6</v>
+        <v>327.1</v>
       </c>
       <c r="L2" t="s">
         <v>51</v>
@@ -1526,31 +1526,31 @@
         <v>49</v>
       </c>
       <c r="C3">
-        <v>4111.400000000001</v>
+        <v>4052.400000000001</v>
       </c>
       <c r="D3">
-        <v>353.9</v>
+        <v>369.8000000000001</v>
       </c>
       <c r="E3">
-        <v>45475.8</v>
+        <v>44097.4</v>
       </c>
       <c r="F3">
-        <v>5188.599999999999</v>
+        <v>5709.2</v>
       </c>
       <c r="G3">
-        <v>11.06</v>
+        <v>10.88</v>
       </c>
       <c r="H3">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I3">
         <v>1408097</v>
       </c>
       <c r="J3">
-        <v>3229.6</v>
+        <v>3131.7</v>
       </c>
       <c r="K3">
-        <v>368.5</v>
+        <v>405.5</v>
       </c>
       <c r="L3" t="s">
         <v>52</v>
@@ -1570,31 +1570,31 @@
         <v>50</v>
       </c>
       <c r="C4">
-        <v>6161.8</v>
+        <v>6020.8</v>
       </c>
       <c r="D4">
-        <v>533.1999999999999</v>
+        <v>560.6999999999999</v>
       </c>
       <c r="E4">
-        <v>64046.3</v>
+        <v>61632.1</v>
       </c>
       <c r="F4">
-        <v>8020.500000000001</v>
+        <v>8755.100000000002</v>
       </c>
       <c r="G4">
-        <v>10.39</v>
+        <v>10.24</v>
       </c>
       <c r="H4">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="I4">
         <v>2819680</v>
       </c>
       <c r="J4">
-        <v>2271.4</v>
+        <v>2185.8</v>
       </c>
       <c r="K4">
-        <v>284.4</v>
+        <v>310.5</v>
       </c>
       <c r="L4" t="s">
         <v>53</v>
@@ -1878,13 +1878,13 @@
         <v>48</v>
       </c>
       <c r="C11">
-        <v>9926</v>
+        <v>9928</v>
       </c>
       <c r="D11">
         <v>1513.2</v>
       </c>
       <c r="E11">
-        <v>74931.5</v>
+        <v>74966</v>
       </c>
       <c r="F11">
         <v>16832.1</v>
@@ -1899,7 +1899,7 @@
         <v>5837584</v>
       </c>
       <c r="J11">
-        <v>1283.6</v>
+        <v>1284.2</v>
       </c>
       <c r="K11">
         <v>288.3</v>
@@ -1922,13 +1922,13 @@
         <v>49</v>
       </c>
       <c r="C12">
-        <v>9219.599999999999</v>
+        <v>9220.599999999999</v>
       </c>
       <c r="D12">
         <v>1531.4</v>
       </c>
       <c r="E12">
-        <v>82093.20000000001</v>
+        <v>82101.50000000001</v>
       </c>
       <c r="F12">
         <v>19380.7</v>
@@ -1943,7 +1943,7 @@
         <v>5677327</v>
       </c>
       <c r="J12">
-        <v>1446</v>
+        <v>1446.1</v>
       </c>
       <c r="K12">
         <v>341.4</v>
@@ -1966,13 +1966,13 @@
         <v>50</v>
       </c>
       <c r="C13">
-        <v>19105.4</v>
+        <v>19108.4</v>
       </c>
       <c r="D13">
         <v>2802.3</v>
       </c>
       <c r="E13">
-        <v>158311.1</v>
+        <v>158352.6</v>
       </c>
       <c r="F13">
         <v>34108.9</v>
@@ -1987,7 +1987,7 @@
         <v>11514911</v>
       </c>
       <c r="J13">
-        <v>1374.8</v>
+        <v>1375.2</v>
       </c>
       <c r="K13">
         <v>296.2</v>
@@ -2010,13 +2010,13 @@
         <v>48</v>
       </c>
       <c r="C14">
-        <v>7305.4</v>
+        <v>7308.4</v>
       </c>
       <c r="D14">
         <v>1336.9</v>
       </c>
       <c r="E14">
-        <v>90923.3</v>
+        <v>90977.39999999999</v>
       </c>
       <c r="F14">
         <v>15022.6</v>
@@ -2031,7 +2031,7 @@
         <v>3577957</v>
       </c>
       <c r="J14">
-        <v>2541.2</v>
+        <v>2542.7</v>
       </c>
       <c r="K14">
         <v>419.9</v>
@@ -2098,13 +2098,13 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>17590.2</v>
+        <v>17593.2</v>
       </c>
       <c r="D16">
         <v>2603.6</v>
       </c>
       <c r="E16">
-        <v>221621.8</v>
+        <v>221671</v>
       </c>
       <c r="F16">
         <v>31090.5</v>
@@ -2119,7 +2119,7 @@
         <v>6946346</v>
       </c>
       <c r="J16">
-        <v>3190.5</v>
+        <v>3191.2</v>
       </c>
       <c r="K16">
         <v>447.6</v>
@@ -2406,13 +2406,13 @@
         <v>48</v>
       </c>
       <c r="C23">
-        <v>8911</v>
+        <v>8915</v>
       </c>
       <c r="D23">
         <v>1801.8</v>
       </c>
       <c r="E23">
-        <v>84314.5</v>
+        <v>84348.09999999999</v>
       </c>
       <c r="F23">
         <v>20195.3</v>
@@ -2427,7 +2427,7 @@
         <v>5420337</v>
       </c>
       <c r="J23">
-        <v>1555.5</v>
+        <v>1556.1</v>
       </c>
       <c r="K23">
         <v>372.6</v>
@@ -2450,13 +2450,13 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>10770.2</v>
+        <v>10774.2</v>
       </c>
       <c r="D24">
         <v>1618.1</v>
       </c>
       <c r="E24">
-        <v>108259</v>
+        <v>108327.9</v>
       </c>
       <c r="F24">
         <v>21620.1</v>
@@ -2465,13 +2465,13 @@
         <v>10.05</v>
       </c>
       <c r="H24">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="I24">
         <v>5270736</v>
       </c>
       <c r="J24">
-        <v>2054</v>
+        <v>2055.3</v>
       </c>
       <c r="K24">
         <v>410.2</v>
@@ -2494,13 +2494,13 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>19671.8</v>
+        <v>19679.8</v>
       </c>
       <c r="D25">
         <v>3265.6</v>
       </c>
       <c r="E25">
-        <v>198423.8</v>
+        <v>198531.1</v>
       </c>
       <c r="F25">
         <v>39891.59999999999</v>
@@ -2515,7 +2515,7 @@
         <v>10691073</v>
       </c>
       <c r="J25">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="K25">
         <v>373.1</v>
@@ -2670,28 +2670,28 @@
         <v>48</v>
       </c>
       <c r="C29">
-        <v>650.2</v>
+        <v>654.2</v>
       </c>
       <c r="D29">
         <v>227.3</v>
       </c>
       <c r="E29">
-        <v>6880.999999999999</v>
+        <v>6944.5</v>
       </c>
       <c r="F29">
         <v>3326.7</v>
       </c>
       <c r="G29">
-        <v>10.58</v>
+        <v>10.62</v>
       </c>
       <c r="H29">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="I29">
         <v>699139</v>
       </c>
       <c r="J29">
-        <v>984.2</v>
+        <v>993.3</v>
       </c>
       <c r="K29">
         <v>475.8</v>
@@ -2714,28 +2714,28 @@
         <v>49</v>
       </c>
       <c r="C30">
-        <v>490.9999999999999</v>
+        <v>496.9999999999999</v>
       </c>
       <c r="D30">
         <v>200.5</v>
       </c>
       <c r="E30">
-        <v>5569.1</v>
+        <v>5697.7</v>
       </c>
       <c r="F30">
         <v>2989.1</v>
       </c>
       <c r="G30">
-        <v>11.34</v>
+        <v>11.46</v>
       </c>
       <c r="H30">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="I30">
         <v>629076</v>
       </c>
       <c r="J30">
-        <v>885.3</v>
+        <v>905.7</v>
       </c>
       <c r="K30">
         <v>475.2</v>
@@ -2758,28 +2758,28 @@
         <v>50</v>
       </c>
       <c r="C31">
-        <v>1099.6</v>
+        <v>1109.6</v>
       </c>
       <c r="D31">
         <v>419.7</v>
       </c>
       <c r="E31">
-        <v>12141.8</v>
+        <v>12344.7</v>
       </c>
       <c r="F31">
         <v>5981.7</v>
       </c>
       <c r="G31">
-        <v>11.04</v>
+        <v>11.13</v>
       </c>
       <c r="H31">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="I31">
         <v>1328215</v>
       </c>
       <c r="J31">
-        <v>914.1</v>
+        <v>929.4</v>
       </c>
       <c r="K31">
         <v>450.4</v>
@@ -2934,13 +2934,13 @@
         <v>48</v>
       </c>
       <c r="C35">
-        <v>34422.39999999999</v>
+        <v>34442.39999999999</v>
       </c>
       <c r="D35">
         <v>6860.9</v>
       </c>
       <c r="E35">
-        <v>267807.3</v>
+        <v>267999.1</v>
       </c>
       <c r="F35">
         <v>61937.7</v>
@@ -2955,7 +2955,7 @@
         <v>34741634</v>
       </c>
       <c r="J35">
-        <v>770.9</v>
+        <v>771.4</v>
       </c>
       <c r="K35">
         <v>178.3</v>
@@ -2978,28 +2978,28 @@
         <v>49</v>
       </c>
       <c r="C36">
-        <v>35334.8</v>
+        <v>35358.8</v>
       </c>
       <c r="D36">
         <v>6461.7</v>
       </c>
       <c r="E36">
-        <v>321358.2</v>
+        <v>321601</v>
       </c>
       <c r="F36">
         <v>74176.59999999999</v>
       </c>
       <c r="G36">
-        <v>9.09</v>
+        <v>9.1</v>
       </c>
       <c r="H36">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="I36">
         <v>32501940</v>
       </c>
       <c r="J36">
-        <v>988.7</v>
+        <v>989.5</v>
       </c>
       <c r="K36">
         <v>228.2</v>
@@ -3022,28 +3022,28 @@
         <v>50</v>
       </c>
       <c r="C37">
-        <v>69736.2</v>
+        <v>69780.2</v>
       </c>
       <c r="D37">
         <v>12954</v>
       </c>
       <c r="E37">
-        <v>602813.3</v>
+        <v>603257.8999999999</v>
       </c>
       <c r="F37">
         <v>136360.7</v>
       </c>
       <c r="G37">
-        <v>8.640000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="H37">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I37">
         <v>67243574</v>
       </c>
       <c r="J37">
-        <v>896.5</v>
+        <v>897.1</v>
       </c>
       <c r="K37">
         <v>202.8</v>
@@ -3638,13 +3638,13 @@
         <v>48</v>
       </c>
       <c r="C51">
-        <v>52574.8</v>
+        <v>52652.8</v>
       </c>
       <c r="D51">
         <v>7566.4</v>
       </c>
       <c r="E51">
-        <v>411398.3</v>
+        <v>412124.7</v>
       </c>
       <c r="F51">
         <v>77971.20000000001</v>
@@ -3659,7 +3659,7 @@
         <v>29127637</v>
       </c>
       <c r="J51">
-        <v>1412.4</v>
+        <v>1414.9</v>
       </c>
       <c r="K51">
         <v>267.7</v>
@@ -3682,28 +3682,28 @@
         <v>49</v>
       </c>
       <c r="C52">
-        <v>58154</v>
+        <v>58262</v>
       </c>
       <c r="D52">
         <v>6031.200000000001</v>
       </c>
       <c r="E52">
-        <v>575411.5</v>
+        <v>576682.2</v>
       </c>
       <c r="F52">
         <v>71607</v>
       </c>
       <c r="G52">
-        <v>9.890000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H52">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I52">
         <v>28325684</v>
       </c>
       <c r="J52">
-        <v>2031.4</v>
+        <v>2035.9</v>
       </c>
       <c r="K52">
         <v>252.8</v>
@@ -3726,13 +3726,13 @@
         <v>50</v>
       </c>
       <c r="C53">
-        <v>110724.6</v>
+        <v>110910.6</v>
       </c>
       <c r="D53">
         <v>12988.8</v>
       </c>
       <c r="E53">
-        <v>1015369.3</v>
+        <v>1017432.2</v>
       </c>
       <c r="F53">
         <v>145489.8</v>
@@ -3741,13 +3741,13 @@
         <v>9.17</v>
       </c>
       <c r="H53">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I53">
         <v>59641488</v>
       </c>
       <c r="J53">
-        <v>1702.5</v>
+        <v>1705.9</v>
       </c>
       <c r="K53">
         <v>243.9</v>
@@ -3770,31 +3770,31 @@
         <v>48</v>
       </c>
       <c r="C54">
-        <v>780</v>
+        <v>828.4000000000001</v>
       </c>
       <c r="D54">
-        <v>329.1</v>
+        <v>336.5</v>
       </c>
       <c r="E54">
-        <v>5189.200000000001</v>
+        <v>5535.9</v>
       </c>
       <c r="F54">
-        <v>2209.3</v>
+        <v>2511.4</v>
       </c>
       <c r="G54">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="H54">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="I54">
         <v>1026584</v>
       </c>
       <c r="J54">
-        <v>505.5</v>
+        <v>539.3</v>
       </c>
       <c r="K54">
-        <v>215.2</v>
+        <v>244.6</v>
       </c>
       <c r="L54" t="s">
         <v>103</v>
@@ -3814,31 +3814,31 @@
         <v>49</v>
       </c>
       <c r="C55">
-        <v>582.6</v>
+        <v>657.8</v>
       </c>
       <c r="D55">
-        <v>242.7</v>
+        <v>265.3</v>
       </c>
       <c r="E55">
-        <v>4532.3</v>
+        <v>5439.5</v>
       </c>
       <c r="F55">
-        <v>2292.7</v>
+        <v>2936.5</v>
       </c>
       <c r="G55">
-        <v>7.78</v>
+        <v>8.27</v>
       </c>
       <c r="H55">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="I55">
         <v>880883</v>
       </c>
       <c r="J55">
-        <v>514.5</v>
+        <v>617.5</v>
       </c>
       <c r="K55">
-        <v>260.3</v>
+        <v>333.4</v>
       </c>
       <c r="L55" t="s">
         <v>104</v>
@@ -3858,28 +3858,28 @@
         <v>50</v>
       </c>
       <c r="C56">
-        <v>1313.6</v>
+        <v>1450.6</v>
       </c>
       <c r="D56">
         <v>636.8</v>
       </c>
       <c r="E56">
-        <v>9355</v>
+        <v>10887.4</v>
       </c>
       <c r="F56">
         <v>5804.5</v>
       </c>
       <c r="G56">
-        <v>7.12</v>
+        <v>7.51</v>
       </c>
       <c r="H56">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="I56">
         <v>1907467</v>
       </c>
       <c r="J56">
-        <v>490.4</v>
+        <v>570.8</v>
       </c>
       <c r="K56">
         <v>304.3</v>
@@ -4166,28 +4166,28 @@
         <v>48</v>
       </c>
       <c r="C63">
-        <v>257.8</v>
+        <v>261.8</v>
       </c>
       <c r="D63">
         <v>84.59999999999999</v>
       </c>
       <c r="E63">
-        <v>2454.1</v>
+        <v>2499.8</v>
       </c>
       <c r="F63">
         <v>1474.6</v>
       </c>
       <c r="G63">
-        <v>9.52</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="H63">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="I63">
         <v>248495</v>
       </c>
       <c r="J63">
-        <v>987.6</v>
+        <v>1006</v>
       </c>
       <c r="K63">
         <v>593.4</v>
@@ -4210,28 +4210,28 @@
         <v>49</v>
       </c>
       <c r="C64">
-        <v>299.2</v>
+        <v>300.2</v>
       </c>
       <c r="D64">
         <v>105.1</v>
       </c>
       <c r="E64">
-        <v>4021.9</v>
+        <v>4015.3</v>
       </c>
       <c r="F64">
         <v>1816.9</v>
       </c>
       <c r="G64">
-        <v>13.44</v>
+        <v>13.38</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="I64">
         <v>265547</v>
       </c>
       <c r="J64">
-        <v>1514.6</v>
+        <v>1512.1</v>
       </c>
       <c r="K64">
         <v>684.2</v>
@@ -4254,19 +4254,19 @@
         <v>50</v>
       </c>
       <c r="C65">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D65">
         <v>160.3</v>
       </c>
       <c r="E65">
-        <v>6439.700000000001</v>
+        <v>6477.3</v>
       </c>
       <c r="F65">
         <v>2852.5</v>
       </c>
       <c r="G65">
-        <v>11.69</v>
+        <v>11.65</v>
       </c>
       <c r="H65">
         <v>1.37</v>
@@ -4275,7 +4275,7 @@
         <v>514042</v>
       </c>
       <c r="J65">
-        <v>1252.8</v>
+        <v>1260.1</v>
       </c>
       <c r="K65">
         <v>554.9</v>
@@ -4298,28 +4298,28 @@
         <v>48</v>
       </c>
       <c r="C66">
-        <v>368.0000000000001</v>
+        <v>337</v>
       </c>
       <c r="D66">
         <v>97.80000000000001</v>
       </c>
       <c r="E66">
-        <v>4084.9</v>
+        <v>3834.800000000001</v>
       </c>
       <c r="F66">
         <v>1461.2</v>
       </c>
       <c r="G66">
-        <v>11.1</v>
+        <v>11.38</v>
       </c>
       <c r="H66">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I66">
         <v>314211</v>
       </c>
       <c r="J66">
-        <v>1300</v>
+        <v>1220.5</v>
       </c>
       <c r="K66">
         <v>465</v>
@@ -4342,28 +4342,28 @@
         <v>49</v>
       </c>
       <c r="C67">
-        <v>593</v>
+        <v>543</v>
       </c>
       <c r="D67">
         <v>172.6</v>
       </c>
       <c r="E67">
-        <v>6245.599999999999</v>
+        <v>5773.799999999999</v>
       </c>
       <c r="F67">
         <v>2425</v>
       </c>
       <c r="G67">
-        <v>10.53</v>
+        <v>10.63</v>
       </c>
       <c r="H67">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="I67">
         <v>307342</v>
       </c>
       <c r="J67">
-        <v>2032.1</v>
+        <v>1878.6</v>
       </c>
       <c r="K67">
         <v>789</v>
@@ -4386,28 +4386,28 @@
         <v>50</v>
       </c>
       <c r="C68">
-        <v>935</v>
+        <v>859</v>
       </c>
       <c r="D68">
         <v>186.3</v>
       </c>
       <c r="E68">
-        <v>10349.8</v>
+        <v>9637.799999999999</v>
       </c>
       <c r="F68">
         <v>2992</v>
       </c>
       <c r="G68">
-        <v>11.07</v>
+        <v>11.22</v>
       </c>
       <c r="H68">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="I68">
         <v>621553</v>
       </c>
       <c r="J68">
-        <v>1665.2</v>
+        <v>1550.6</v>
       </c>
       <c r="K68">
         <v>481.4</v>
@@ -4430,31 +4430,31 @@
         <v>48</v>
       </c>
       <c r="C69">
-        <v>8476</v>
+        <v>8504.200000000001</v>
       </c>
       <c r="D69">
-        <v>1337.7</v>
+        <v>1334.6</v>
       </c>
       <c r="E69">
-        <v>76172.2</v>
+        <v>76458</v>
       </c>
       <c r="F69">
-        <v>19315.3</v>
+        <v>19220.1</v>
       </c>
       <c r="G69">
         <v>8.99</v>
       </c>
       <c r="H69">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I69">
         <v>8755516</v>
       </c>
       <c r="J69">
-        <v>870</v>
+        <v>873.3</v>
       </c>
       <c r="K69">
-        <v>220.6</v>
+        <v>219.5</v>
       </c>
       <c r="L69" t="s">
         <v>118</v>
@@ -4474,31 +4474,31 @@
         <v>49</v>
       </c>
       <c r="C70">
-        <v>11861</v>
+        <v>11933.6</v>
       </c>
       <c r="D70">
-        <v>1807</v>
+        <v>1808.9</v>
       </c>
       <c r="E70">
-        <v>112428.4</v>
+        <v>114090.3</v>
       </c>
       <c r="F70">
-        <v>22314.1</v>
+        <v>22376</v>
       </c>
       <c r="G70">
-        <v>9.48</v>
+        <v>9.56</v>
       </c>
       <c r="H70">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I70">
         <v>8642743</v>
       </c>
       <c r="J70">
-        <v>1300.8</v>
+        <v>1320.1</v>
       </c>
       <c r="K70">
-        <v>258.2</v>
+        <v>258.9</v>
       </c>
       <c r="L70" t="s">
         <v>119</v>
@@ -4518,31 +4518,31 @@
         <v>50</v>
       </c>
       <c r="C71">
-        <v>20236.8</v>
+        <v>20342.6</v>
       </c>
       <c r="D71">
-        <v>3028.599999999999</v>
+        <v>3027.9</v>
       </c>
       <c r="E71">
-        <v>188476.7</v>
+        <v>190631.7</v>
       </c>
       <c r="F71">
-        <v>41679.89999999999</v>
+        <v>41656</v>
       </c>
       <c r="G71">
-        <v>9.31</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="H71">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="I71">
         <v>17398259</v>
       </c>
       <c r="J71">
-        <v>1083.3</v>
+        <v>1095.7</v>
       </c>
       <c r="K71">
-        <v>239.6</v>
+        <v>239.4</v>
       </c>
       <c r="L71" t="s">
         <v>120</v>
@@ -4562,31 +4562,31 @@
         <v>48</v>
       </c>
       <c r="C72">
-        <v>295.4</v>
+        <v>297.6</v>
       </c>
       <c r="D72">
-        <v>230.9</v>
+        <v>236.9</v>
       </c>
       <c r="E72">
-        <v>4553.7</v>
+        <v>4613.7</v>
       </c>
       <c r="F72">
-        <v>3607.4</v>
+        <v>3964.2</v>
       </c>
       <c r="G72">
-        <v>15.42</v>
+        <v>15.5</v>
       </c>
       <c r="H72">
-        <v>0.09</v>
+        <v>0.55</v>
       </c>
       <c r="I72">
         <v>2661342</v>
       </c>
       <c r="J72">
-        <v>171.1</v>
+        <v>173.4</v>
       </c>
       <c r="K72">
-        <v>135.5</v>
+        <v>149</v>
       </c>
       <c r="L72" t="s">
         <v>121</v>
@@ -4606,28 +4606,28 @@
         <v>49</v>
       </c>
       <c r="C73">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="D73">
         <v>313</v>
       </c>
       <c r="E73">
-        <v>6929.2</v>
+        <v>6853.5</v>
       </c>
       <c r="F73">
-        <v>3520.3</v>
+        <v>3521.4</v>
       </c>
       <c r="G73">
-        <v>11.84</v>
+        <v>11.86</v>
       </c>
       <c r="H73">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="I73">
         <v>2706032</v>
       </c>
       <c r="J73">
-        <v>256.1</v>
+        <v>253.3</v>
       </c>
       <c r="K73">
         <v>130.1</v>
@@ -4650,31 +4650,31 @@
         <v>50</v>
       </c>
       <c r="C74">
-        <v>777.1999999999999</v>
+        <v>767.9999999999999</v>
       </c>
       <c r="D74">
-        <v>527.3000000000001</v>
+        <v>527.2</v>
       </c>
       <c r="E74">
-        <v>10711</v>
+        <v>10676.7</v>
       </c>
       <c r="F74">
-        <v>7236</v>
+        <v>7230.699999999999</v>
       </c>
       <c r="G74">
-        <v>13.78</v>
+        <v>13.9</v>
       </c>
       <c r="H74">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74">
         <v>5367374</v>
       </c>
       <c r="J74">
-        <v>199.6</v>
+        <v>198.9</v>
       </c>
       <c r="K74">
-        <v>134.8</v>
+        <v>134.7</v>
       </c>
       <c r="L74" t="s">
         <v>123</v>
@@ -4958,13 +4958,13 @@
         <v>48</v>
       </c>
       <c r="C81">
-        <v>16402.8</v>
+        <v>16448.8</v>
       </c>
       <c r="D81">
         <v>3285.7</v>
       </c>
       <c r="E81">
-        <v>182740</v>
+        <v>183274.3</v>
       </c>
       <c r="F81">
         <v>36133.3</v>
@@ -4979,7 +4979,7 @@
         <v>9857376</v>
       </c>
       <c r="J81">
-        <v>1853.8</v>
+        <v>1859.3</v>
       </c>
       <c r="K81">
         <v>366.6</v>
@@ -5002,13 +5002,13 @@
         <v>49</v>
       </c>
       <c r="C82">
-        <v>23908.6</v>
+        <v>23960.6</v>
       </c>
       <c r="D82">
         <v>3552.4</v>
       </c>
       <c r="E82">
-        <v>281551.3</v>
+        <v>282223.9</v>
       </c>
       <c r="F82">
         <v>44743.1</v>
@@ -5023,7 +5023,7 @@
         <v>9455001</v>
       </c>
       <c r="J82">
-        <v>2977.8</v>
+        <v>2984.9</v>
       </c>
       <c r="K82">
         <v>473.2</v>
@@ -5046,13 +5046,13 @@
         <v>50</v>
       </c>
       <c r="C83">
-        <v>40311.4</v>
+        <v>40409.4</v>
       </c>
       <c r="D83">
         <v>6607.7</v>
       </c>
       <c r="E83">
-        <v>484194.9</v>
+        <v>485440.7</v>
       </c>
       <c r="F83">
         <v>79512.20000000001</v>
@@ -5061,13 +5061,13 @@
         <v>12.01</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I83">
         <v>19312377</v>
       </c>
       <c r="J83">
-        <v>2507.2</v>
+        <v>2513.6</v>
       </c>
       <c r="K83">
         <v>411.7</v>
@@ -5222,13 +5222,13 @@
         <v>48</v>
       </c>
       <c r="C87">
-        <v>3047.8</v>
+        <v>3049.8</v>
       </c>
       <c r="D87">
         <v>660.0999999999999</v>
       </c>
       <c r="E87">
-        <v>34342</v>
+        <v>34360.2</v>
       </c>
       <c r="F87">
         <v>10003.5</v>
@@ -5243,7 +5243,7 @@
         <v>2791028</v>
       </c>
       <c r="J87">
-        <v>1230.4</v>
+        <v>1231.1</v>
       </c>
       <c r="K87">
         <v>358.4</v>
@@ -5266,28 +5266,28 @@
         <v>49</v>
       </c>
       <c r="C88">
-        <v>3653.8</v>
+        <v>3654.8</v>
       </c>
       <c r="D88">
         <v>512.3</v>
       </c>
       <c r="E88">
-        <v>38962.7</v>
+        <v>38994.4</v>
       </c>
       <c r="F88">
         <v>7280</v>
       </c>
       <c r="G88">
-        <v>10.66</v>
+        <v>10.67</v>
       </c>
       <c r="H88">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="I88">
         <v>2664476</v>
       </c>
       <c r="J88">
-        <v>1462.3</v>
+        <v>1463.5</v>
       </c>
       <c r="K88">
         <v>273.2</v>
@@ -5310,28 +5310,28 @@
         <v>50</v>
       </c>
       <c r="C89">
-        <v>6658.199999999999</v>
+        <v>6661.199999999999</v>
       </c>
       <c r="D89">
         <v>953.9000000000001</v>
       </c>
       <c r="E89">
-        <v>74330.3</v>
+        <v>74381.8</v>
       </c>
       <c r="F89">
         <v>11753.5</v>
       </c>
       <c r="G89">
-        <v>11.16</v>
+        <v>11.17</v>
       </c>
       <c r="H89">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I89">
         <v>5455504</v>
       </c>
       <c r="J89">
-        <v>1362.5</v>
+        <v>1363.4</v>
       </c>
       <c r="K89">
         <v>215.4</v>
@@ -5354,28 +5354,28 @@
         <v>48</v>
       </c>
       <c r="C90">
-        <v>2169.8</v>
+        <v>2183.8</v>
       </c>
       <c r="D90">
         <v>355.8</v>
       </c>
       <c r="E90">
-        <v>16580.8</v>
+        <v>16728</v>
       </c>
       <c r="F90">
         <v>4050</v>
       </c>
       <c r="G90">
-        <v>7.64</v>
+        <v>7.66</v>
       </c>
       <c r="H90">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="I90">
         <v>1043845</v>
       </c>
       <c r="J90">
-        <v>1588.4</v>
+        <v>1602.5</v>
       </c>
       <c r="K90">
         <v>388</v>
@@ -5398,28 +5398,28 @@
         <v>49</v>
       </c>
       <c r="C91">
-        <v>1937.8</v>
+        <v>1950.8</v>
       </c>
       <c r="D91">
         <v>350.1</v>
       </c>
       <c r="E91">
-        <v>18307.1</v>
+        <v>18560.5</v>
       </c>
       <c r="F91">
         <v>5002.200000000001</v>
       </c>
       <c r="G91">
-        <v>9.449999999999999</v>
+        <v>9.51</v>
       </c>
       <c r="H91">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="I91">
         <v>1050156</v>
       </c>
       <c r="J91">
-        <v>1743.3</v>
+        <v>1767.4</v>
       </c>
       <c r="K91">
         <v>476.3</v>
@@ -5442,19 +5442,19 @@
         <v>50</v>
       </c>
       <c r="C92">
-        <v>4099.4</v>
+        <v>4122.4</v>
       </c>
       <c r="D92">
         <v>589</v>
       </c>
       <c r="E92">
-        <v>35371.4</v>
+        <v>35664.3</v>
       </c>
       <c r="F92">
         <v>7026.4</v>
       </c>
       <c r="G92">
-        <v>8.630000000000001</v>
+        <v>8.65</v>
       </c>
       <c r="H92">
         <v>0.41</v>
@@ -5463,7 +5463,7 @@
         <v>2094001</v>
       </c>
       <c r="J92">
-        <v>1689.2</v>
+        <v>1703.2</v>
       </c>
       <c r="K92">
         <v>335.5</v>
@@ -5486,31 +5486,31 @@
         <v>48</v>
       </c>
       <c r="C93">
-        <v>41052.8</v>
+        <v>39333</v>
       </c>
       <c r="D93">
-        <v>4951</v>
+        <v>4956.8</v>
       </c>
       <c r="E93">
-        <v>375431</v>
+        <v>350345.8</v>
       </c>
       <c r="F93">
-        <v>54170.10000000001</v>
+        <v>54610.60000000001</v>
       </c>
       <c r="G93">
-        <v>9.15</v>
+        <v>8.91</v>
       </c>
       <c r="H93">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I93">
         <v>24103540</v>
       </c>
       <c r="J93">
-        <v>1557.6</v>
+        <v>1453.5</v>
       </c>
       <c r="K93">
-        <v>224.7</v>
+        <v>226.6</v>
       </c>
       <c r="L93" t="s">
         <v>142</v>
@@ -5530,28 +5530,28 @@
         <v>49</v>
       </c>
       <c r="C94">
-        <v>41299.2</v>
+        <v>39228.2</v>
       </c>
       <c r="D94">
         <v>5166.700000000001</v>
       </c>
       <c r="E94">
-        <v>425242.3</v>
+        <v>406580.8</v>
       </c>
       <c r="F94">
         <v>59430.10000000001</v>
       </c>
       <c r="G94">
-        <v>10.3</v>
+        <v>10.36</v>
       </c>
       <c r="H94">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="I94">
         <v>23179515</v>
       </c>
       <c r="J94">
-        <v>1834.6</v>
+        <v>1754.1</v>
       </c>
       <c r="K94">
         <v>256.4</v>
@@ -5574,31 +5574,31 @@
         <v>50</v>
       </c>
       <c r="C95">
-        <v>82317</v>
+        <v>78535.2</v>
       </c>
       <c r="D95">
-        <v>9598.200000000001</v>
+        <v>9621.200000000001</v>
       </c>
       <c r="E95">
-        <v>816161.5</v>
+        <v>772956.7999999999</v>
       </c>
       <c r="F95">
-        <v>109504.1</v>
+        <v>110853</v>
       </c>
       <c r="G95">
-        <v>9.91</v>
+        <v>9.84</v>
       </c>
       <c r="H95">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="I95">
         <v>47283055</v>
       </c>
       <c r="J95">
-        <v>1726.1</v>
+        <v>1634.7</v>
       </c>
       <c r="K95">
-        <v>231.6</v>
+        <v>234.4</v>
       </c>
       <c r="L95" t="s">
         <v>144</v>

--- a/data_output/PYLL/PYLL_EU/EU_PYLL_All_age_groups_['Female', 'Male', 'Total']_static_over_90.xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_PYLL_All_age_groups_['Female', 'Male', 'Total']_static_over_90.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="317">
   <si>
     <t>Location</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Excess_mortality_Mean</t>
-  </si>
-  <si>
-    <t>Excess_mortality_fluc</t>
+    <t>Excess_mortality</t>
+  </si>
+  <si>
+    <t>Conf_interval</t>
   </si>
   <si>
     <t>PYLL_mean</t>
@@ -58,12 +58,6 @@
     <t>PYLL_STD ±</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -94,12 +88,6 @@
     <t>France</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Greece</t>
   </si>
   <si>
@@ -169,904 +157,814 @@
     <t>Total</t>
   </si>
   <si>
-    <t>17576.3 (±4617.1)</t>
-  </si>
-  <si>
-    <t>44097.4 (±5709.2)</t>
-  </si>
-  <si>
-    <t>61632.1 (±8755.1)</t>
-  </si>
-  <si>
-    <t>40659.3 (±6696.9)</t>
-  </si>
-  <si>
-    <t>145206.2 (±9060.4)</t>
-  </si>
-  <si>
-    <t>193016.4 (±14709.8)</t>
-  </si>
-  <si>
-    <t>38662.3 (±11770.4)</t>
-  </si>
-  <si>
-    <t>56461.7 (±15504.1)</t>
-  </si>
-  <si>
-    <t>93952.7 (±24412.6)</t>
-  </si>
-  <si>
-    <t>74966.0 (±16832.1)</t>
-  </si>
-  <si>
-    <t>82101.5 (±19380.7)</t>
-  </si>
-  <si>
-    <t>158352.6 (±34108.9)</t>
-  </si>
-  <si>
-    <t>90977.4 (±15022.6)</t>
-  </si>
-  <si>
-    <t>123396.6 (±17089.5)</t>
-  </si>
-  <si>
-    <t>221671.0 (±31090.5)</t>
-  </si>
-  <si>
-    <t>23453.1 (±8988.0)</t>
-  </si>
-  <si>
-    <t>28051.8 (±7434.0)</t>
-  </si>
-  <si>
-    <t>52723.0 (±14682.1)</t>
-  </si>
-  <si>
-    <t>2942.3 (±1482.4)</t>
-  </si>
-  <si>
-    <t>4813.8 (±2542.4)</t>
-  </si>
-  <si>
-    <t>7398.7 (±3090.6)</t>
-  </si>
-  <si>
-    <t>84348.1 (±20195.3)</t>
-  </si>
-  <si>
-    <t>108327.9 (±21620.1)</t>
-  </si>
-  <si>
-    <t>198531.1 (±39891.6)</t>
-  </si>
-  <si>
-    <t>8905.9 (±3351.0)</t>
-  </si>
-  <si>
-    <t>14181.7 (±5194.5)</t>
-  </si>
-  <si>
-    <t>22966.1 (±9610.6)</t>
-  </si>
-  <si>
-    <t>6944.5 (±3326.7)</t>
-  </si>
-  <si>
-    <t>5697.7 (±2989.1)</t>
-  </si>
-  <si>
-    <t>12344.7 (±5981.7)</t>
-  </si>
-  <si>
-    <t>14107.8 (±6050.1)</t>
-  </si>
-  <si>
-    <t>18693.4 (±6981.7)</t>
-  </si>
-  <si>
-    <t>32789.5 (±12098.3)</t>
-  </si>
-  <si>
-    <t>267999.1 (±61937.7)</t>
-  </si>
-  <si>
-    <t>321601.0 (±74176.6)</t>
-  </si>
-  <si>
-    <t>603257.9 (±136360.7)</t>
-  </si>
-  <si>
-    <t>1417.1 (±1964.7)</t>
-  </si>
-  <si>
-    <t>2310.1 (±1978.8)</t>
-  </si>
-  <si>
-    <t>3146.2 (±3634.9)</t>
-  </si>
-  <si>
-    <t>875495.1 (±2484123.9)</t>
-  </si>
-  <si>
-    <t>37982.9 (±15772.3)</t>
-  </si>
-  <si>
-    <t>36390.1 (±10488.3)</t>
-  </si>
-  <si>
-    <t>73821.9 (±25793.6)</t>
-  </si>
-  <si>
-    <t>78800.8 (±14307.7)</t>
-  </si>
-  <si>
-    <t>75244.2 (±16382.6)</t>
-  </si>
-  <si>
-    <t>158387.0 (±28225.3)</t>
-  </si>
-  <si>
-    <t>1113.4 (±743.6)</t>
-  </si>
-  <si>
-    <t>1900.3 (±1048.5)</t>
-  </si>
-  <si>
-    <t>2561.2 (±1701.2)</t>
-  </si>
-  <si>
-    <t>412124.7 (±77971.2)</t>
-  </si>
-  <si>
-    <t>576682.2 (±71607.0)</t>
-  </si>
-  <si>
-    <t>1017432.2 (±145489.8)</t>
-  </si>
-  <si>
-    <t>5535.9 (±2511.4)</t>
-  </si>
-  <si>
-    <t>5439.5 (±2936.5)</t>
-  </si>
-  <si>
-    <t>10887.4 (±5804.5)</t>
-  </si>
-  <si>
-    <t>22362.2 (±8838.6)</t>
-  </si>
-  <si>
-    <t>26972.0 (±12453.6)</t>
-  </si>
-  <si>
-    <t>51766.4 (±22026.3)</t>
-  </si>
-  <si>
-    <t>2852.6 (±1444.9)</t>
-  </si>
-  <si>
-    <t>3852.1 (±2249.5)</t>
-  </si>
-  <si>
-    <t>6352.4 (±3427.0)</t>
-  </si>
-  <si>
-    <t>2499.8 (±1474.6)</t>
-  </si>
-  <si>
-    <t>4015.3 (±1816.9)</t>
-  </si>
-  <si>
-    <t>6477.3 (±2852.5)</t>
-  </si>
-  <si>
-    <t>3834.8 (±1461.2)</t>
-  </si>
-  <si>
-    <t>5773.8 (±2425.0)</t>
-  </si>
-  <si>
-    <t>9637.8 (±2992.0)</t>
-  </si>
-  <si>
-    <t>76458.0 (±19220.1)</t>
-  </si>
-  <si>
-    <t>114090.3 (±22376.0)</t>
-  </si>
-  <si>
-    <t>190631.7 (±41656.0)</t>
-  </si>
-  <si>
-    <t>4613.7 (±3964.2)</t>
-  </si>
-  <si>
-    <t>6853.5 (±3521.4)</t>
-  </si>
-  <si>
-    <t>10676.7 (±7230.7)</t>
-  </si>
-  <si>
-    <t>381506.1 (±77582.8)</t>
-  </si>
-  <si>
-    <t>527412.4 (±86630.4)</t>
-  </si>
-  <si>
-    <t>947742.2 (±164523.4)</t>
-  </si>
-  <si>
-    <t>61722.5 (±15248.7)</t>
-  </si>
-  <si>
-    <t>65159.4 (±17231.4)</t>
-  </si>
-  <si>
-    <t>129446.9 (±27331.0)</t>
-  </si>
-  <si>
-    <t>183274.3 (±36133.3)</t>
-  </si>
-  <si>
-    <t>282223.9 (±44743.1)</t>
-  </si>
-  <si>
-    <t>485440.7 (±79512.2)</t>
-  </si>
-  <si>
-    <t>38529.1 (±13466.6)</t>
-  </si>
-  <si>
-    <t>81738.4 (±24171.3)</t>
-  </si>
-  <si>
-    <t>120014.1 (±35722.2)</t>
-  </si>
-  <si>
-    <t>34360.2 (±10003.5)</t>
-  </si>
-  <si>
-    <t>38994.4 (±7280.0)</t>
-  </si>
-  <si>
-    <t>74381.8 (±11753.5)</t>
-  </si>
-  <si>
-    <t>16728.0 (±4050.0)</t>
-  </si>
-  <si>
-    <t>18560.5 (±5002.2)</t>
-  </si>
-  <si>
-    <t>35664.3 (±7026.4)</t>
-  </si>
-  <si>
-    <t>350345.8 (±54610.6)</t>
-  </si>
-  <si>
-    <t>406580.8 (±59430.1)</t>
-  </si>
-  <si>
-    <t>772956.8 (±110853.0)</t>
-  </si>
-  <si>
-    <t>29796.4 (±6568.0)</t>
-  </si>
-  <si>
-    <t>44532.9 (±10055.2)</t>
-  </si>
-  <si>
-    <t>71225.3 (±13237.5)</t>
-  </si>
-  <si>
-    <t>34639.8 (±5693.4)</t>
-  </si>
-  <si>
-    <t>48360.4 (±11630.8)</t>
-  </si>
-  <si>
-    <t>81204.6 (±16295.7)</t>
-  </si>
-  <si>
-    <t>8.92 (±0.75)</t>
-  </si>
-  <si>
-    <t>10.88 (±0.38)</t>
-  </si>
-  <si>
-    <t>10.24 (±0.45)</t>
-  </si>
-  <si>
-    <t>12.37 (±0.16)</t>
-  </si>
-  <si>
-    <t>25.21 (±0.59)</t>
-  </si>
-  <si>
-    <t>21.41 (±0.53)</t>
-  </si>
-  <si>
-    <t>9.34 (±0.35)</t>
-  </si>
-  <si>
-    <t>9.9 (±0.49)</t>
-  </si>
-  <si>
-    <t>9.62 (±0.31)</t>
-  </si>
-  <si>
-    <t>7.55 (±0.47)</t>
-  </si>
-  <si>
-    <t>8.9 (±0.54)</t>
-  </si>
-  <si>
-    <t>8.29 (±0.49)</t>
-  </si>
-  <si>
-    <t>12.45 (±0.19)</t>
-  </si>
-  <si>
-    <t>11.99 (±0.05)</t>
-  </si>
-  <si>
-    <t>12.6 (±0.09)</t>
-  </si>
-  <si>
-    <t>8.54 (±0.68)</t>
-  </si>
-  <si>
-    <t>9.41 (±0.3)</t>
-  </si>
-  <si>
-    <t>9.24 (±0.32)</t>
-  </si>
-  <si>
-    <t>11.7 (±0.88)</t>
-  </si>
-  <si>
-    <t>13.97 (±0.58)</t>
-  </si>
-  <si>
-    <t>12.65 (±0.48)</t>
-  </si>
-  <si>
-    <t>9.46 (±0.3)</t>
-  </si>
-  <si>
-    <t>10.05 (±0.44)</t>
-  </si>
-  <si>
-    <t>10.09 (±0.3)</t>
-  </si>
-  <si>
-    <t>11.63 (±0.26)</t>
-  </si>
-  <si>
-    <t>8.64 (±0.24)</t>
-  </si>
-  <si>
-    <t>9.61 (±0.55)</t>
-  </si>
-  <si>
-    <t>10.62 (±1.03)</t>
-  </si>
-  <si>
-    <t>11.46 (±0.99)</t>
-  </si>
-  <si>
-    <t>11.13 (±0.85)</t>
-  </si>
-  <si>
-    <t>9.89 (±0.6)</t>
-  </si>
-  <si>
-    <t>11.33 (±0.33)</t>
-  </si>
-  <si>
-    <t>10.87 (±0.48)</t>
-  </si>
-  <si>
-    <t>7.78 (±0.21)</t>
-  </si>
-  <si>
-    <t>9.1 (±0.36)</t>
-  </si>
-  <si>
-    <t>8.65 (±0.29)</t>
-  </si>
-  <si>
-    <t>7.99 (±0.3)</t>
-  </si>
-  <si>
-    <t>10.28 (±0.2)</t>
-  </si>
-  <si>
-    <t>9.6 (±0.35)</t>
-  </si>
-  <si>
-    <t>9.96 (±1.27)</t>
-  </si>
-  <si>
-    <t>7.85 (±0.24)</t>
-  </si>
-  <si>
-    <t>8.61 (±0.06)</t>
-  </si>
-  <si>
-    <t>8.17 (±0.07)</t>
-  </si>
-  <si>
-    <t>10.42 (±0.29)</t>
-  </si>
-  <si>
-    <t>10.79 (±0.53)</t>
-  </si>
-  <si>
-    <t>10.9 (±0.38)</t>
-  </si>
-  <si>
-    <t>28.4 (±4.65)</t>
-  </si>
-  <si>
-    <t>21.99 (±0.57)</t>
-  </si>
-  <si>
-    <t>24.03 (±1.15)</t>
-  </si>
-  <si>
-    <t>7.83 (±0.31)</t>
-  </si>
-  <si>
-    <t>9.9 (±0.18)</t>
-  </si>
-  <si>
-    <t>9.17 (±0.22)</t>
-  </si>
-  <si>
-    <t>6.68 (±0.23)</t>
-  </si>
-  <si>
-    <t>8.27 (±0.8)</t>
-  </si>
-  <si>
-    <t>7.51 (±0.49)</t>
-  </si>
-  <si>
-    <t>9.78 (±0.5)</t>
-  </si>
-  <si>
-    <t>11.5 (±0.94)</t>
-  </si>
-  <si>
-    <t>11.2 (±0.79)</t>
-  </si>
-  <si>
-    <t>10.82 (±1.2)</t>
-  </si>
-  <si>
-    <t>12.35 (±1.36)</t>
-  </si>
-  <si>
-    <t>11.32 (±1.58)</t>
-  </si>
-  <si>
-    <t>9.55 (±1.92)</t>
-  </si>
-  <si>
-    <t>13.38 (±1.01)</t>
-  </si>
-  <si>
-    <t>11.65 (±1.37)</t>
-  </si>
-  <si>
-    <t>11.38 (±0.8)</t>
-  </si>
-  <si>
-    <t>10.63 (±0.83)</t>
-  </si>
-  <si>
-    <t>11.22 (±0.86)</t>
-  </si>
-  <si>
-    <t>8.99 (±0.73)</t>
-  </si>
-  <si>
-    <t>9.56 (±0.37)</t>
-  </si>
-  <si>
-    <t>9.37 (±0.57)</t>
-  </si>
-  <si>
-    <t>15.5 (±0.55)</t>
-  </si>
-  <si>
-    <t>11.86 (±0.22)</t>
-  </si>
-  <si>
-    <t>13.9 (±0.07)</t>
-  </si>
-  <si>
-    <t>10.23 (±0.22)</t>
-  </si>
-  <si>
-    <t>11.64 (±0.2)</t>
-  </si>
-  <si>
-    <t>11.47 (±0.18)</t>
-  </si>
-  <si>
-    <t>7.98 (±0.43)</t>
-  </si>
-  <si>
-    <t>9.83 (±0.37)</t>
-  </si>
-  <si>
-    <t>9.02 (±0.21)</t>
-  </si>
-  <si>
-    <t>11.14 (±0.02)</t>
-  </si>
-  <si>
-    <t>11.78 (±0.1)</t>
-  </si>
-  <si>
-    <t>12.01 (±0.01)</t>
-  </si>
-  <si>
-    <t>10.76 (±0.07)</t>
-  </si>
-  <si>
-    <t>12.02 (±0.26)</t>
-  </si>
-  <si>
-    <t>11.82 (±0.33)</t>
-  </si>
-  <si>
-    <t>11.27 (±0.69)</t>
-  </si>
-  <si>
-    <t>10.67 (±0.43)</t>
-  </si>
-  <si>
-    <t>11.17 (±0.14)</t>
-  </si>
-  <si>
-    <t>7.66 (±0.52)</t>
-  </si>
-  <si>
-    <t>9.51 (±0.73)</t>
-  </si>
-  <si>
-    <t>8.65 (±0.41)</t>
-  </si>
-  <si>
-    <t>8.91 (±0.23)</t>
-  </si>
-  <si>
-    <t>10.36 (±0.14)</t>
-  </si>
-  <si>
-    <t>9.84 (±0.19)</t>
-  </si>
-  <si>
-    <t>8.68 (±0.08)</t>
-  </si>
-  <si>
-    <t>8.98 (±0.73)</t>
-  </si>
-  <si>
-    <t>8.6 (±0.37)</t>
-  </si>
-  <si>
-    <t>7.19 (±0.34)</t>
-  </si>
-  <si>
-    <t>8.55 (±0.85)</t>
-  </si>
-  <si>
-    <t>7.83 (±0.62)</t>
-  </si>
-  <si>
-    <t>1245.1 (±327.1)</t>
-  </si>
-  <si>
-    <t>3131.7 (±405.5)</t>
-  </si>
-  <si>
-    <t>2185.8 (±310.5)</t>
-  </si>
-  <si>
-    <t>2633.0 (±433.7)</t>
-  </si>
-  <si>
-    <t>10478.9 (±653.8)</t>
-  </si>
-  <si>
-    <t>6587.7 (±502.0)</t>
-  </si>
-  <si>
-    <t>854.8 (±260.2)</t>
-  </si>
-  <si>
-    <t>1289.8 (±354.2)</t>
-  </si>
-  <si>
-    <t>1055.6 (±274.3)</t>
-  </si>
-  <si>
-    <t>1284.2 (±288.3)</t>
-  </si>
-  <si>
-    <t>1446.1 (±341.4)</t>
-  </si>
-  <si>
-    <t>1375.2 (±296.2)</t>
-  </si>
-  <si>
-    <t>2542.7 (±419.9)</t>
-  </si>
-  <si>
-    <t>3663.4 (±507.3)</t>
-  </si>
-  <si>
-    <t>3191.2 (±447.6)</t>
-  </si>
-  <si>
-    <t>1125.3 (±431.3)</t>
-  </si>
-  <si>
-    <t>1423.9 (±377.3)</t>
-  </si>
-  <si>
-    <t>1300.4 (±362.1)</t>
-  </si>
-  <si>
-    <t>661.3 (±333.2)</t>
-  </si>
-  <si>
-    <t>1122.6 (±592.9)</t>
-  </si>
-  <si>
-    <t>846.7 (±353.7)</t>
-  </si>
-  <si>
-    <t>1556.1 (±372.6)</t>
-  </si>
-  <si>
-    <t>2055.3 (±410.2)</t>
-  </si>
-  <si>
-    <t>1857.0 (±373.1)</t>
-  </si>
-  <si>
-    <t>296.4 (±111.5)</t>
-  </si>
-  <si>
-    <t>482.6 (±176.8)</t>
-  </si>
-  <si>
-    <t>386.4 (±161.7)</t>
-  </si>
-  <si>
-    <t>993.3 (±475.8)</t>
-  </si>
-  <si>
-    <t>905.7 (±475.2)</t>
-  </si>
-  <si>
-    <t>929.4 (±450.4)</t>
-  </si>
-  <si>
-    <t>504.7 (±216.4)</t>
-  </si>
-  <si>
-    <t>685.6 (±256.1)</t>
-  </si>
-  <si>
-    <t>593.8 (±219.1)</t>
-  </si>
-  <si>
-    <t>771.4 (±178.3)</t>
-  </si>
-  <si>
-    <t>989.5 (±228.2)</t>
-  </si>
-  <si>
-    <t>897.1 (±202.8)</t>
-  </si>
-  <si>
-    <t>73.5 (±102.0)</t>
-  </si>
-  <si>
-    <t>129.0 (±110.5)</t>
-  </si>
-  <si>
-    <t>84.6 (±97.8)</t>
-  </si>
-  <si>
-    <t>1054.1 (±2990.9)</t>
-  </si>
-  <si>
-    <t>691.0 (±286.9)</t>
-  </si>
-  <si>
-    <t>698.4 (±201.3)</t>
-  </si>
-  <si>
-    <t>689.5 (±240.9)</t>
-  </si>
-  <si>
-    <t>1549.3 (±281.3)</t>
-  </si>
-  <si>
-    <t>1608.1 (±350.1)</t>
-  </si>
-  <si>
-    <t>1621.9 (±289.0)</t>
-  </si>
-  <si>
-    <t>628.6 (±419.8)</t>
-  </si>
-  <si>
-    <t>1016.8 (±561.0)</t>
-  </si>
-  <si>
-    <t>703.6 (±467.3)</t>
-  </si>
-  <si>
-    <t>1414.9 (±267.7)</t>
-  </si>
-  <si>
-    <t>2035.9 (±252.8)</t>
-  </si>
-  <si>
-    <t>1705.9 (±243.9)</t>
-  </si>
-  <si>
-    <t>539.3 (±244.6)</t>
-  </si>
-  <si>
-    <t>617.5 (±333.4)</t>
-  </si>
-  <si>
-    <t>570.8 (±304.3)</t>
-  </si>
-  <si>
-    <t>1502.6 (±593.9)</t>
-  </si>
-  <si>
-    <t>2068.7 (±955.1)</t>
-  </si>
-  <si>
-    <t>1854.0 (±788.9)</t>
-  </si>
-  <si>
-    <t>917.4 (±464.7)</t>
-  </si>
-  <si>
-    <t>1223.5 (±714.5)</t>
-  </si>
-  <si>
-    <t>1015.1 (±547.6)</t>
-  </si>
-  <si>
-    <t>1006.0 (±593.4)</t>
-  </si>
-  <si>
-    <t>1512.1 (±684.2)</t>
-  </si>
-  <si>
-    <t>1260.1 (±554.9)</t>
-  </si>
-  <si>
-    <t>1220.5 (±465.0)</t>
-  </si>
-  <si>
-    <t>1878.6 (±789.0)</t>
-  </si>
-  <si>
-    <t>1550.6 (±481.4)</t>
-  </si>
-  <si>
-    <t>873.3 (±219.5)</t>
-  </si>
-  <si>
-    <t>1320.1 (±258.9)</t>
-  </si>
-  <si>
-    <t>1095.7 (±239.4)</t>
-  </si>
-  <si>
-    <t>173.4 (±149.0)</t>
-  </si>
-  <si>
-    <t>253.3 (±130.1)</t>
-  </si>
-  <si>
-    <t>198.9 (±134.7)</t>
-  </si>
-  <si>
-    <t>1949.4 (±396.4)</t>
-  </si>
-  <si>
-    <t>2871.7 (±471.7)</t>
-  </si>
-  <si>
-    <t>2498.3 (±433.7)</t>
-  </si>
-  <si>
-    <t>1137.0 (±280.9)</t>
-  </si>
-  <si>
-    <t>1342.1 (±354.9)</t>
-  </si>
-  <si>
-    <t>1258.8 (±265.8)</t>
-  </si>
-  <si>
-    <t>1859.3 (±366.6)</t>
-  </si>
-  <si>
-    <t>2984.9 (±473.2)</t>
-  </si>
-  <si>
-    <t>2513.6 (±411.7)</t>
-  </si>
-  <si>
-    <t>1085.8 (±379.5)</t>
-  </si>
-  <si>
-    <t>2424.2 (±716.9)</t>
-  </si>
-  <si>
-    <t>1734.3 (±516.2)</t>
-  </si>
-  <si>
-    <t>1231.1 (±358.4)</t>
-  </si>
-  <si>
-    <t>1463.5 (±273.2)</t>
-  </si>
-  <si>
-    <t>1363.4 (±215.4)</t>
-  </si>
-  <si>
-    <t>1602.5 (±388.0)</t>
-  </si>
-  <si>
-    <t>1767.4 (±476.3)</t>
-  </si>
-  <si>
-    <t>1703.2 (±335.5)</t>
-  </si>
-  <si>
-    <t>1453.5 (±226.6)</t>
-  </si>
-  <si>
-    <t>1754.1 (±256.4)</t>
-  </si>
-  <si>
-    <t>1634.7 (±234.4)</t>
-  </si>
-  <si>
-    <t>580.7 (±128.0)</t>
-  </si>
-  <si>
-    <t>857.4 (±193.6)</t>
-  </si>
-  <si>
-    <t>689.8 (±128.2)</t>
-  </si>
-  <si>
-    <t>827.4 (±136.0)</t>
-  </si>
-  <si>
-    <t>1154.2 (±277.6)</t>
-  </si>
-  <si>
-    <t>969.4 (±194.5)</t>
+    <t>39413.7 (±29401.5)</t>
+  </si>
+  <si>
+    <t>54585.7 (±28771.3)</t>
+  </si>
+  <si>
+    <t>91796.6 (±43370.6)</t>
+  </si>
+  <si>
+    <t>80397.8 (±30835.9)</t>
+  </si>
+  <si>
+    <t>97639.3 (±37212.7)</t>
+  </si>
+  <si>
+    <t>180817.5 (±54190.6)</t>
+  </si>
+  <si>
+    <t>105262.1 (±32158.2)</t>
+  </si>
+  <si>
+    <t>136802.6 (±34671.4)</t>
+  </si>
+  <si>
+    <t>249389.2 (±50859.9)</t>
+  </si>
+  <si>
+    <t>34703.2 (±22830.6)</t>
+  </si>
+  <si>
+    <t>38112.8 (±20256.1)</t>
+  </si>
+  <si>
+    <t>73007.4 (±34427.0)</t>
+  </si>
+  <si>
+    <t>2291.6 (±4733.7)</t>
+  </si>
+  <si>
+    <t>2458.6 (±5647.6)</t>
+  </si>
+  <si>
+    <t>3889.6 (±7378.1)</t>
+  </si>
+  <si>
+    <t>80971.2 (±36953.6)</t>
+  </si>
+  <si>
+    <t>103228.4 (±39079.9)</t>
+  </si>
+  <si>
+    <t>187872.1 (±54331.2)</t>
+  </si>
+  <si>
+    <t>8156.1 (±18088.5)</t>
+  </si>
+  <si>
+    <t>8527.0 (±18655.1)</t>
+  </si>
+  <si>
+    <t>14408.9 (±28095.2)</t>
+  </si>
+  <si>
+    <t>6055.9 (±10507.5)</t>
+  </si>
+  <si>
+    <t>7135.4 (±12116.6)</t>
+  </si>
+  <si>
+    <t>11900.2 (±18289.8)</t>
+  </si>
+  <si>
+    <t>7979.0 (±16937.6)</t>
+  </si>
+  <si>
+    <t>15277.3 (±19903.5)</t>
+  </si>
+  <si>
+    <t>20251.9 (±29465.8)</t>
+  </si>
+  <si>
+    <t>223340.1 (±86084.1)</t>
+  </si>
+  <si>
+    <t>339825.0 (±95638.8)</t>
+  </si>
+  <si>
+    <t>575273.9 (±158407.0)</t>
+  </si>
+  <si>
+    <t>36291.2 (±31891.1)</t>
+  </si>
+  <si>
+    <t>40054.3 (±32217.3)</t>
+  </si>
+  <si>
+    <t>74648.2 (±49009.6)</t>
+  </si>
+  <si>
+    <t>87674.2 (±40180.0)</t>
+  </si>
+  <si>
+    <t>84498.1 (±41857.4)</t>
+  </si>
+  <si>
+    <t>174866.4 (±68601.7)</t>
+  </si>
+  <si>
+    <t>1325.3 (±2637.5)</t>
+  </si>
+  <si>
+    <t>1671.0 (±3840.5)</t>
+  </si>
+  <si>
+    <t>2389.4 (±4878.6)</t>
+  </si>
+  <si>
+    <t>505484.9 (±97509.7)</t>
+  </si>
+  <si>
+    <t>677643.2 (±96876.8)</t>
+  </si>
+  <si>
+    <t>1208990.8 (±167596.1)</t>
+  </si>
+  <si>
+    <t>9874.0 (±12384.0)</t>
+  </si>
+  <si>
+    <t>9257.5 (±14832.9)</t>
+  </si>
+  <si>
+    <t>18701.2 (±21768.7)</t>
+  </si>
+  <si>
+    <t>38538.6 (±20740.2)</t>
+  </si>
+  <si>
+    <t>57675.6 (±24923.3)</t>
+  </si>
+  <si>
+    <t>100948.5 (±36207.1)</t>
+  </si>
+  <si>
+    <t>2219.8 (±4591.0)</t>
+  </si>
+  <si>
+    <t>3649.2 (±5220.0)</t>
+  </si>
+  <si>
+    <t>5343.8 (±7977.4)</t>
+  </si>
+  <si>
+    <t>2661.8 (±4557.2)</t>
+  </si>
+  <si>
+    <t>2716.1 (±4685.9)</t>
+  </si>
+  <si>
+    <t>5156.8 (±7427.6)</t>
+  </si>
+  <si>
+    <t>6080.7 (±7588.7)</t>
+  </si>
+  <si>
+    <t>6468.6 (±5122.4)</t>
+  </si>
+  <si>
+    <t>12078.7 (±9486.0)</t>
+  </si>
+  <si>
+    <t>65179.1 (±35118.2)</t>
+  </si>
+  <si>
+    <t>105259.6 (±38860.5)</t>
+  </si>
+  <si>
+    <t>172863.3 (±60980.4)</t>
+  </si>
+  <si>
+    <t>2661.6 (±10018.2)</t>
+  </si>
+  <si>
+    <t>4991.6 (±15143.2)</t>
+  </si>
+  <si>
+    <t>6039.2 (±19128.3)</t>
+  </si>
+  <si>
+    <t>334423.7 (±80388.2)</t>
+  </si>
+  <si>
+    <t>494314.9 (±88448.9)</t>
+  </si>
+  <si>
+    <t>866757.2 (±140268.7)</t>
+  </si>
+  <si>
+    <t>62789.6 (±32675.8)</t>
+  </si>
+  <si>
+    <t>64195.9 (±39434.2)</t>
+  </si>
+  <si>
+    <t>127767.1 (±60069.9)</t>
+  </si>
+  <si>
+    <t>216460.1 (±62972.8)</t>
+  </si>
+  <si>
+    <t>277084.0 (±71952.3)</t>
+  </si>
+  <si>
+    <t>506054.4 (±109487.8)</t>
+  </si>
+  <si>
+    <t>55872.4 (±30787.5)</t>
+  </si>
+  <si>
+    <t>102698.7 (±36762.1)</t>
+  </si>
+  <si>
+    <t>160560.7 (±56456.9)</t>
+  </si>
+  <si>
+    <t>39271.7 (±24232.6)</t>
+  </si>
+  <si>
+    <t>40016.5 (±29449.5)</t>
+  </si>
+  <si>
+    <t>80557.4 (±41543.9)</t>
+  </si>
+  <si>
+    <t>17585.7 (±10021.3)</t>
+  </si>
+  <si>
+    <t>19515.8 (±14770.3)</t>
+  </si>
+  <si>
+    <t>37352.4 (±18444.5)</t>
+  </si>
+  <si>
+    <t>366253.4 (±76230.7)</t>
+  </si>
+  <si>
+    <t>432135.0 (±83848.8)</t>
+  </si>
+  <si>
+    <t>815899.6 (±127861.3)</t>
+  </si>
+  <si>
+    <t>33954.5 (±22132.7)</t>
+  </si>
+  <si>
+    <t>62988.5 (±30319.8)</t>
+  </si>
+  <si>
+    <t>95760.3 (±43387.6)</t>
+  </si>
+  <si>
+    <t>30523.0 (±24245.8)</t>
+  </si>
+  <si>
+    <t>51430.1 (±31546.2)</t>
+  </si>
+  <si>
+    <t>81711.6 (±44771.8)</t>
+  </si>
+  <si>
+    <t>10.17 (±1.85)</t>
+  </si>
+  <si>
+    <t>11.9 (±1.21)</t>
+  </si>
+  <si>
+    <t>10.98 (±1.03)</t>
+  </si>
+  <si>
+    <t>8.41 (±1.06)</t>
+  </si>
+  <si>
+    <t>10.89 (±1.2)</t>
+  </si>
+  <si>
+    <t>9.77 (±0.88)</t>
+  </si>
+  <si>
+    <t>12.99 (±0.38)</t>
+  </si>
+  <si>
+    <t>12.4 (±0.49)</t>
+  </si>
+  <si>
+    <t>13.04 (±0.22)</t>
+  </si>
+  <si>
+    <t>10.8 (±1.51)</t>
+  </si>
+  <si>
+    <t>11.37 (±1.06)</t>
+  </si>
+  <si>
+    <t>11.19 (±1.16)</t>
+  </si>
+  <si>
+    <t>22.16 (±0.62)</t>
+  </si>
+  <si>
+    <t>17.85 (±1.18)</t>
+  </si>
+  <si>
+    <t>18.18 (±0.41)</t>
+  </si>
+  <si>
+    <t>10.32 (±1.25)</t>
+  </si>
+  <si>
+    <t>11.26 (±1.1)</t>
+  </si>
+  <si>
+    <t>11.06 (±0.65)</t>
+  </si>
+  <si>
+    <t>19.38 (±0.59)</t>
+  </si>
+  <si>
+    <t>12.98 (±2.67)</t>
+  </si>
+  <si>
+    <t>14.8 (±3.08)</t>
+  </si>
+  <si>
+    <t>18.01 (±0.55)</t>
+  </si>
+  <si>
+    <t>20.96 (±0.25)</t>
+  </si>
+  <si>
+    <t>18.68 (±1.87)</t>
+  </si>
+  <si>
+    <t>11.32 (±1.74)</t>
+  </si>
+  <si>
+    <t>20.5 (±1.18)</t>
+  </si>
+  <si>
+    <t>15.24 (±0.45)</t>
+  </si>
+  <si>
+    <t>8.36 (±0.82)</t>
+  </si>
+  <si>
+    <t>11.07 (±0.69)</t>
+  </si>
+  <si>
+    <t>10.04 (±0.57)</t>
+  </si>
+  <si>
+    <t>12.03 (±0.71)</t>
+  </si>
+  <si>
+    <t>13.39 (±0.57)</t>
+  </si>
+  <si>
+    <t>12.52 (±0.27)</t>
+  </si>
+  <si>
+    <t>11.88 (±0.92)</t>
+  </si>
+  <si>
+    <t>12.53 (±1.17)</t>
+  </si>
+  <si>
+    <t>12.4 (±0.92)</t>
+  </si>
+  <si>
+    <t>34.88 (±5.68)</t>
+  </si>
+  <si>
+    <t>28.13 (±3.36)</t>
+  </si>
+  <si>
+    <t>37.75 (±3.64)</t>
+  </si>
+  <si>
+    <t>8.97 (±0.28)</t>
+  </si>
+  <si>
+    <t>11.3 (±0.28)</t>
+  </si>
+  <si>
+    <t>10.4 (±0.15)</t>
+  </si>
+  <si>
+    <t>11.72 (±1.47)</t>
+  </si>
+  <si>
+    <t>14.78 (±1.77)</t>
+  </si>
+  <si>
+    <t>13.31 (±1.65)</t>
+  </si>
+  <si>
+    <t>12.04 (±1.29)</t>
+  </si>
+  <si>
+    <t>15.01 (±0.93)</t>
+  </si>
+  <si>
+    <t>14.39 (±0.89)</t>
+  </si>
+  <si>
+    <t>14.06 (±2.53)</t>
+  </si>
+  <si>
+    <t>16.47 (±0.31)</t>
+  </si>
+  <si>
+    <t>15.07 (±1.06)</t>
+  </si>
+  <si>
+    <t>10.94 (±2.76)</t>
+  </si>
+  <si>
+    <t>16.06 (±1.02)</t>
+  </si>
+  <si>
+    <t>12.86 (±2.51)</t>
+  </si>
+  <si>
+    <t>14.35 (±1.0)</t>
+  </si>
+  <si>
+    <t>10.7 (±0.48)</t>
+  </si>
+  <si>
+    <t>11.94 (±1.13)</t>
+  </si>
+  <si>
+    <t>9.69 (±1.09)</t>
+  </si>
+  <si>
+    <t>11.2 (±1.07)</t>
+  </si>
+  <si>
+    <t>10.73 (±0.9)</t>
+  </si>
+  <si>
+    <t>20.1 (±3.44)</t>
+  </si>
+  <si>
+    <t>17.73 (±3.62)</t>
+  </si>
+  <si>
+    <t>17.13 (±4.9)</t>
+  </si>
+  <si>
+    <t>10.92 (±0.65)</t>
+  </si>
+  <si>
+    <t>12.34 (±0.53)</t>
+  </si>
+  <si>
+    <t>12.27 (±0.38)</t>
+  </si>
+  <si>
+    <t>9.48 (±1.21)</t>
+  </si>
+  <si>
+    <t>11.97 (±1.36)</t>
+  </si>
+  <si>
+    <t>10.7 (±1.12)</t>
+  </si>
+  <si>
+    <t>12.69 (±0.59)</t>
+  </si>
+  <si>
+    <t>11.8 (±0.77)</t>
+  </si>
+  <si>
+    <t>12.5 (±0.48)</t>
+  </si>
+  <si>
+    <t>12.47 (±0.27)</t>
+  </si>
+  <si>
+    <t>13.23 (±0.64)</t>
+  </si>
+  <si>
+    <t>13.16 (±0.4)</t>
+  </si>
+  <si>
+    <t>12.33 (±1.44)</t>
+  </si>
+  <si>
+    <t>11.83 (±2.18)</t>
+  </si>
+  <si>
+    <t>12.3 (±1.52)</t>
+  </si>
+  <si>
+    <t>8.91 (±1.65)</t>
+  </si>
+  <si>
+    <t>11.71 (±1.95)</t>
+  </si>
+  <si>
+    <t>10.32 (±1.54)</t>
+  </si>
+  <si>
+    <t>9.59 (±0.54)</t>
+  </si>
+  <si>
+    <t>11.4 (±0.57)</t>
+  </si>
+  <si>
+    <t>10.72 (±0.36)</t>
+  </si>
+  <si>
+    <t>8.23 (±1.6)</t>
+  </si>
+  <si>
+    <t>11.58 (±1.28)</t>
+  </si>
+  <si>
+    <t>10.11 (±1.25)</t>
+  </si>
+  <si>
+    <t>7.46 (±2.41)</t>
+  </si>
+  <si>
+    <t>10.23 (±2.28)</t>
+  </si>
+  <si>
+    <t>9.01 (±1.98)</t>
+  </si>
+  <si>
+    <t>871.4 (±650.0)</t>
+  </si>
+  <si>
+    <t>1246.9 (±657.2)</t>
+  </si>
+  <si>
+    <t>1031.3 (±487.3)</t>
+  </si>
+  <si>
+    <t>1377.2 (±528.2)</t>
+  </si>
+  <si>
+    <t>1719.8 (±655.5)</t>
+  </si>
+  <si>
+    <t>1570.3 (±470.6)</t>
+  </si>
+  <si>
+    <t>2942.0 (±898.8)</t>
+  </si>
+  <si>
+    <t>4061.4 (±1029.3)</t>
+  </si>
+  <si>
+    <t>3590.2 (±732.2)</t>
+  </si>
+  <si>
+    <t>1665.1 (±1095.4)</t>
+  </si>
+  <si>
+    <t>1934.6 (±1028.2)</t>
+  </si>
+  <si>
+    <t>1800.8 (±849.2)</t>
+  </si>
+  <si>
+    <t>515.0 (±1063.9)</t>
+  </si>
+  <si>
+    <t>573.3 (±1317.0)</t>
+  </si>
+  <si>
+    <t>445.1 (±844.4)</t>
+  </si>
+  <si>
+    <t>1493.8 (±681.8)</t>
+  </si>
+  <si>
+    <t>1958.5 (±741.5)</t>
+  </si>
+  <si>
+    <t>1757.3 (±508.2)</t>
+  </si>
+  <si>
+    <t>271.4 (±602.0)</t>
+  </si>
+  <si>
+    <t>290.2 (±634.9)</t>
+  </si>
+  <si>
+    <t>242.4 (±472.7)</t>
+  </si>
+  <si>
+    <t>866.2 (±1502.9)</t>
+  </si>
+  <si>
+    <t>1134.3 (±1926.1)</t>
+  </si>
+  <si>
+    <t>896.0 (±1377.0)</t>
+  </si>
+  <si>
+    <t>285.4 (±605.9)</t>
+  </si>
+  <si>
+    <t>560.3 (±730.0)</t>
+  </si>
+  <si>
+    <t>366.8 (±533.6)</t>
+  </si>
+  <si>
+    <t>642.9 (±247.8)</t>
+  </si>
+  <si>
+    <t>1045.6 (±294.3)</t>
+  </si>
+  <si>
+    <t>855.5 (±235.6)</t>
+  </si>
+  <si>
+    <t>660.2 (±580.2)</t>
+  </si>
+  <si>
+    <t>768.7 (±618.3)</t>
+  </si>
+  <si>
+    <t>697.2 (±457.7)</t>
+  </si>
+  <si>
+    <t>1723.8 (±790.0)</t>
+  </si>
+  <si>
+    <t>1805.8 (±894.5)</t>
+  </si>
+  <si>
+    <t>1790.7 (±702.5)</t>
+  </si>
+  <si>
+    <t>748.2 (±1489.1)</t>
+  </si>
+  <si>
+    <t>894.1 (±2054.9)</t>
+  </si>
+  <si>
+    <t>656.4 (±1340.2)</t>
+  </si>
+  <si>
+    <t>1735.4 (±334.8)</t>
+  </si>
+  <si>
+    <t>2392.3 (±342.0)</t>
+  </si>
+  <si>
+    <t>2027.1 (±281.0)</t>
+  </si>
+  <si>
+    <t>961.8 (±1206.3)</t>
+  </si>
+  <si>
+    <t>1050.9 (±1683.9)</t>
+  </si>
+  <si>
+    <t>980.4 (±1141.2)</t>
+  </si>
+  <si>
+    <t>2589.5 (±1393.6)</t>
+  </si>
+  <si>
+    <t>4423.5 (±1911.5)</t>
+  </si>
+  <si>
+    <t>3615.5 (±1296.8)</t>
+  </si>
+  <si>
+    <t>713.9 (±1476.5)</t>
+  </si>
+  <si>
+    <t>1159.0 (±1657.9)</t>
+  </si>
+  <si>
+    <t>853.9 (±1274.8)</t>
+  </si>
+  <si>
+    <t>1071.2 (±1833.9)</t>
+  </si>
+  <si>
+    <t>1022.8 (±1764.6)</t>
+  </si>
+  <si>
+    <t>1003.2 (±1444.9)</t>
+  </si>
+  <si>
+    <t>1935.2 (±2415.2)</t>
+  </si>
+  <si>
+    <t>2104.7 (±1666.7)</t>
+  </si>
+  <si>
+    <t>1943.3 (±1526.2)</t>
+  </si>
+  <si>
+    <t>744.4 (±401.1)</t>
+  </si>
+  <si>
+    <t>1217.9 (±449.6)</t>
+  </si>
+  <si>
+    <t>993.6 (±350.5)</t>
+  </si>
+  <si>
+    <t>100.0 (±376.4)</t>
+  </si>
+  <si>
+    <t>184.5 (±559.6)</t>
+  </si>
+  <si>
+    <t>112.5 (±356.4)</t>
+  </si>
+  <si>
+    <t>1708.8 (±410.8)</t>
+  </si>
+  <si>
+    <t>2691.5 (±481.6)</t>
+  </si>
+  <si>
+    <t>2284.8 (±369.8)</t>
+  </si>
+  <si>
+    <t>1156.7 (±601.9)</t>
+  </si>
+  <si>
+    <t>1322.2 (±812.2)</t>
+  </si>
+  <si>
+    <t>1242.4 (±584.1)</t>
+  </si>
+  <si>
+    <t>2195.9 (±638.8)</t>
+  </si>
+  <si>
+    <t>2930.6 (±761.0)</t>
+  </si>
+  <si>
+    <t>2620.4 (±566.9)</t>
+  </si>
+  <si>
+    <t>1574.6 (±867.6)</t>
+  </si>
+  <si>
+    <t>3045.8 (±1090.3)</t>
+  </si>
+  <si>
+    <t>2320.2 (±815.8)</t>
+  </si>
+  <si>
+    <t>1407.1 (±868.2)</t>
+  </si>
+  <si>
+    <t>1501.9 (±1105.3)</t>
+  </si>
+  <si>
+    <t>1476.6 (±761.5)</t>
+  </si>
+  <si>
+    <t>1684.7 (±960.0)</t>
+  </si>
+  <si>
+    <t>1858.4 (±1406.5)</t>
+  </si>
+  <si>
+    <t>1783.8 (±880.8)</t>
+  </si>
+  <si>
+    <t>1519.5 (±316.3)</t>
+  </si>
+  <si>
+    <t>1864.3 (±361.7)</t>
+  </si>
+  <si>
+    <t>1725.6 (±270.4)</t>
+  </si>
+  <si>
+    <t>661.8 (±431.4)</t>
+  </si>
+  <si>
+    <t>1212.7 (±583.7)</t>
+  </si>
+  <si>
+    <t>927.5 (±420.2)</t>
+  </si>
+  <si>
+    <t>729.0 (±579.1)</t>
+  </si>
+  <si>
+    <t>1227.4 (±752.9)</t>
+  </si>
+  <si>
+    <t>975.4 (±534.5)</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1322,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1479,43 +1377,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>1969.8</v>
+        <v>3876.4</v>
       </c>
       <c r="D2">
-        <v>325.4</v>
+        <v>1847.5</v>
       </c>
       <c r="E2">
-        <v>17576.3</v>
+        <v>39413.7</v>
       </c>
       <c r="F2">
-        <v>4617.1</v>
+        <v>29401.5</v>
       </c>
       <c r="G2">
-        <v>8.92</v>
+        <v>10.17</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>1.85</v>
       </c>
       <c r="I2">
-        <v>1411583</v>
+        <v>4523048</v>
       </c>
       <c r="J2">
-        <v>1245.1</v>
+        <v>871.4</v>
       </c>
       <c r="K2">
-        <v>327.1</v>
+        <v>650</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="N2" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1523,43 +1421,43 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3">
-        <v>4052.400000000001</v>
+        <v>4585.6</v>
       </c>
       <c r="D3">
-        <v>369.8000000000001</v>
+        <v>1773.1</v>
       </c>
       <c r="E3">
-        <v>44097.4</v>
+        <v>54585.7</v>
       </c>
       <c r="F3">
-        <v>5709.2</v>
+        <v>28771.3</v>
       </c>
       <c r="G3">
-        <v>10.88</v>
+        <v>11.9</v>
       </c>
       <c r="H3">
-        <v>0.38</v>
+        <v>1.21</v>
       </c>
       <c r="I3">
-        <v>1408097</v>
+        <v>4377629</v>
       </c>
       <c r="J3">
-        <v>3131.7</v>
+        <v>1246.9</v>
       </c>
       <c r="K3">
-        <v>405.5</v>
+        <v>657.2</v>
       </c>
       <c r="L3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="N3" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1567,43 +1465,43 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4">
-        <v>6020.8</v>
+        <v>8362.4</v>
       </c>
       <c r="D4">
-        <v>560.6999999999999</v>
+        <v>2889.4</v>
       </c>
       <c r="E4">
-        <v>61632.1</v>
+        <v>91796.60000000001</v>
       </c>
       <c r="F4">
-        <v>8755.100000000002</v>
+        <v>43370.6</v>
       </c>
       <c r="G4">
-        <v>10.24</v>
+        <v>10.98</v>
       </c>
       <c r="H4">
-        <v>0.45</v>
+        <v>1.03</v>
       </c>
       <c r="I4">
-        <v>2819680</v>
+        <v>8900677</v>
       </c>
       <c r="J4">
-        <v>2185.8</v>
+        <v>1031.3</v>
       </c>
       <c r="K4">
-        <v>310.5</v>
+        <v>487.3</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="N4" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1611,43 +1509,43 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>3285.8</v>
+        <v>9561</v>
       </c>
       <c r="D5">
-        <v>493.3</v>
+        <v>2185.3</v>
       </c>
       <c r="E5">
-        <v>40659.3</v>
+        <v>80397.8</v>
       </c>
       <c r="F5">
-        <v>6696.900000000001</v>
+        <v>30835.9</v>
       </c>
       <c r="G5">
-        <v>12.37</v>
+        <v>8.41</v>
       </c>
       <c r="H5">
-        <v>0.16</v>
+        <v>1.06</v>
       </c>
       <c r="I5">
-        <v>1544247</v>
+        <v>5837584</v>
       </c>
       <c r="J5">
-        <v>2633</v>
+        <v>1377.2</v>
       </c>
       <c r="K5">
-        <v>433.7</v>
+        <v>528.2</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1655,43 +1553,43 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C6">
-        <v>5758.8</v>
+        <v>8967.5</v>
       </c>
       <c r="D6">
-        <v>508</v>
+        <v>2182.6</v>
       </c>
       <c r="E6">
-        <v>145206.2</v>
+        <v>97639.3</v>
       </c>
       <c r="F6">
-        <v>9060.400000000001</v>
+        <v>37212.7</v>
       </c>
       <c r="G6">
-        <v>25.21</v>
+        <v>10.89</v>
       </c>
       <c r="H6">
-        <v>0.59</v>
+        <v>1.2</v>
       </c>
       <c r="I6">
-        <v>1385703</v>
+        <v>5677327</v>
       </c>
       <c r="J6">
-        <v>10478.9</v>
+        <v>1719.8</v>
       </c>
       <c r="K6">
-        <v>653.8</v>
+        <v>655.5</v>
       </c>
       <c r="L6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="N6" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1699,43 +1597,43 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7">
-        <v>9015.800000000001</v>
+        <v>18513</v>
       </c>
       <c r="D7">
-        <v>932.3000000000001</v>
+        <v>3557.6</v>
       </c>
       <c r="E7">
-        <v>193016.4</v>
+        <v>180817.5</v>
       </c>
       <c r="F7">
-        <v>14709.8</v>
+        <v>54190.6</v>
       </c>
       <c r="G7">
-        <v>21.41</v>
+        <v>9.77</v>
       </c>
       <c r="H7">
-        <v>0.53</v>
+        <v>0.88</v>
       </c>
       <c r="I7">
-        <v>2929950</v>
+        <v>11514911</v>
       </c>
       <c r="J7">
-        <v>6587.7</v>
+        <v>1570.3</v>
       </c>
       <c r="K7">
-        <v>502</v>
+        <v>470.6</v>
       </c>
       <c r="L7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="N7" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1743,43 +1641,43 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8">
-        <v>4137.6</v>
+        <v>8104</v>
       </c>
       <c r="D8">
-        <v>1067.3</v>
+        <v>2177.9</v>
       </c>
       <c r="E8">
-        <v>38662.3</v>
+        <v>105262.1</v>
       </c>
       <c r="F8">
-        <v>11770.4</v>
+        <v>32158.2</v>
       </c>
       <c r="G8">
-        <v>9.34</v>
+        <v>12.99</v>
       </c>
       <c r="H8">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I8">
-        <v>4523048</v>
+        <v>3577957</v>
       </c>
       <c r="J8">
-        <v>854.8</v>
+        <v>2942</v>
       </c>
       <c r="K8">
-        <v>260.2</v>
+        <v>898.8</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M8" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="N8" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1787,43 +1685,43 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9">
-        <v>5703</v>
+        <v>11035.3</v>
       </c>
       <c r="D9">
-        <v>1225.4</v>
+        <v>2270.6</v>
       </c>
       <c r="E9">
-        <v>56461.7</v>
+        <v>136802.6</v>
       </c>
       <c r="F9">
-        <v>15504.1</v>
+        <v>34671.4</v>
       </c>
       <c r="G9">
-        <v>9.9</v>
+        <v>12.4</v>
       </c>
       <c r="H9">
         <v>0.49</v>
       </c>
       <c r="I9">
-        <v>4377629</v>
+        <v>3368389</v>
       </c>
       <c r="J9">
-        <v>1289.8</v>
+        <v>4061.4</v>
       </c>
       <c r="K9">
-        <v>354.2</v>
+        <v>1029.3</v>
       </c>
       <c r="L9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="N9" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1831,43 +1729,43 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10">
-        <v>9771.4</v>
+        <v>19124.6</v>
       </c>
       <c r="D10">
-        <v>2146</v>
+        <v>3514.5</v>
       </c>
       <c r="E10">
-        <v>93952.7</v>
+        <v>249389.2</v>
       </c>
       <c r="F10">
-        <v>24412.59999999999</v>
+        <v>50859.9</v>
       </c>
       <c r="G10">
-        <v>9.619999999999999</v>
+        <v>13.04</v>
       </c>
       <c r="H10">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="I10">
-        <v>8900677</v>
+        <v>6946346</v>
       </c>
       <c r="J10">
-        <v>1055.6</v>
+        <v>3590.2</v>
       </c>
       <c r="K10">
-        <v>274.3</v>
+        <v>732.2</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1875,43 +1773,43 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11">
-        <v>9928</v>
+        <v>3214.7</v>
       </c>
       <c r="D11">
-        <v>1513.2</v>
+        <v>1458.2</v>
       </c>
       <c r="E11">
-        <v>74966</v>
+        <v>34703.2</v>
       </c>
       <c r="F11">
-        <v>16832.1</v>
+        <v>22830.6</v>
       </c>
       <c r="G11">
-        <v>7.55</v>
+        <v>10.8</v>
       </c>
       <c r="H11">
-        <v>0.47</v>
+        <v>1.51</v>
       </c>
       <c r="I11">
-        <v>5837584</v>
+        <v>2084134</v>
       </c>
       <c r="J11">
-        <v>1284.2</v>
+        <v>1665.1</v>
       </c>
       <c r="K11">
-        <v>288.3</v>
+        <v>1095.4</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="N11" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1919,43 +1817,43 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12">
-        <v>9220.599999999999</v>
+        <v>3352.5</v>
       </c>
       <c r="D12">
-        <v>1531.4</v>
+        <v>1343.1</v>
       </c>
       <c r="E12">
-        <v>82101.50000000001</v>
+        <v>38112.8</v>
       </c>
       <c r="F12">
-        <v>19380.7</v>
+        <v>20256.1</v>
       </c>
       <c r="G12">
-        <v>8.9</v>
+        <v>11.37</v>
       </c>
       <c r="H12">
-        <v>0.54</v>
+        <v>1.06</v>
       </c>
       <c r="I12">
-        <v>5677327</v>
+        <v>1970079</v>
       </c>
       <c r="J12">
-        <v>1446.1</v>
+        <v>1934.6</v>
       </c>
       <c r="K12">
-        <v>341.4</v>
+        <v>1028.2</v>
       </c>
       <c r="L12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M12" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="N12" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1963,43 +1861,43 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>19108.4</v>
+        <v>6525.3</v>
       </c>
       <c r="D13">
-        <v>2802.3</v>
+        <v>2172.2</v>
       </c>
       <c r="E13">
-        <v>158352.6</v>
+        <v>73007.39999999999</v>
       </c>
       <c r="F13">
-        <v>34108.9</v>
+        <v>34427</v>
       </c>
       <c r="G13">
-        <v>8.289999999999999</v>
+        <v>11.19</v>
       </c>
       <c r="H13">
-        <v>0.49</v>
+        <v>1.16</v>
       </c>
       <c r="I13">
-        <v>11514911</v>
+        <v>4054213</v>
       </c>
       <c r="J13">
-        <v>1375.2</v>
+        <v>1800.8</v>
       </c>
       <c r="K13">
-        <v>296.2</v>
+        <v>849.2</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2007,43 +1905,43 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>7308.4</v>
+        <v>103.4</v>
       </c>
       <c r="D14">
-        <v>1336.9</v>
+        <v>205</v>
       </c>
       <c r="E14">
-        <v>90977.39999999999</v>
+        <v>2291.6</v>
       </c>
       <c r="F14">
-        <v>15022.6</v>
+        <v>4733.7</v>
       </c>
       <c r="G14">
-        <v>12.45</v>
+        <v>22.16</v>
       </c>
       <c r="H14">
-        <v>0.19</v>
+        <v>0.62</v>
       </c>
       <c r="I14">
-        <v>3577957</v>
+        <v>444955</v>
       </c>
       <c r="J14">
-        <v>2542.7</v>
+        <v>515</v>
       </c>
       <c r="K14">
-        <v>419.9</v>
+        <v>1063.9</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M14" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2051,43 +1949,43 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>10293.2</v>
+        <v>137.7</v>
       </c>
       <c r="D15">
-        <v>1379.5</v>
+        <v>288.3</v>
       </c>
       <c r="E15">
-        <v>123396.6</v>
+        <v>2458.6</v>
       </c>
       <c r="F15">
-        <v>17089.5</v>
+        <v>5647.6</v>
       </c>
       <c r="G15">
-        <v>11.99</v>
+        <v>17.85</v>
       </c>
       <c r="H15">
-        <v>0.05</v>
+        <v>1.18</v>
       </c>
       <c r="I15">
-        <v>3368389</v>
+        <v>428827</v>
       </c>
       <c r="J15">
-        <v>3663.4</v>
+        <v>573.3</v>
       </c>
       <c r="K15">
-        <v>507.3</v>
+        <v>1317</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="N15" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2095,43 +1993,43 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C16">
-        <v>17593.2</v>
+        <v>213.9</v>
       </c>
       <c r="D16">
-        <v>2603.6</v>
+        <v>392.1</v>
       </c>
       <c r="E16">
-        <v>221671</v>
+        <v>3889.6</v>
       </c>
       <c r="F16">
-        <v>31090.5</v>
+        <v>7378.1</v>
       </c>
       <c r="G16">
-        <v>12.6</v>
+        <v>18.18</v>
       </c>
       <c r="H16">
-        <v>0.09</v>
+        <v>0.41</v>
       </c>
       <c r="I16">
-        <v>6946346</v>
+        <v>873782</v>
       </c>
       <c r="J16">
-        <v>3191.2</v>
+        <v>445.1</v>
       </c>
       <c r="K16">
-        <v>447.6</v>
+        <v>844.4</v>
       </c>
       <c r="L16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M16" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2139,43 +2037,43 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>2745.2</v>
+        <v>7844.299999999999</v>
       </c>
       <c r="D17">
-        <v>773.3</v>
+        <v>2351.9</v>
       </c>
       <c r="E17">
-        <v>23453.1</v>
+        <v>80971.2</v>
       </c>
       <c r="F17">
-        <v>8987.999999999998</v>
+        <v>36953.6</v>
       </c>
       <c r="G17">
-        <v>8.539999999999999</v>
+        <v>10.32</v>
       </c>
       <c r="H17">
-        <v>0.68</v>
+        <v>1.25</v>
       </c>
       <c r="I17">
-        <v>2084134</v>
+        <v>5420337</v>
       </c>
       <c r="J17">
-        <v>1125.3</v>
+        <v>1493.8</v>
       </c>
       <c r="K17">
-        <v>431.3</v>
+        <v>681.8</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="N17" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2183,43 +2081,43 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>2980.4</v>
+        <v>9168.6</v>
       </c>
       <c r="D18">
-        <v>673.9000000000001</v>
+        <v>2340.6</v>
       </c>
       <c r="E18">
-        <v>28051.8</v>
+        <v>103228.4</v>
       </c>
       <c r="F18">
-        <v>7434</v>
+        <v>39079.9</v>
       </c>
       <c r="G18">
-        <v>9.41</v>
+        <v>11.26</v>
       </c>
       <c r="H18">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="I18">
-        <v>1970079</v>
+        <v>5270736</v>
       </c>
       <c r="J18">
-        <v>1423.9</v>
+        <v>1958.5</v>
       </c>
       <c r="K18">
-        <v>377.3</v>
+        <v>741.5</v>
       </c>
       <c r="L18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="N18" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2227,43 +2125,43 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C19">
-        <v>5708.799999999999</v>
+        <v>16980.9</v>
       </c>
       <c r="D19">
-        <v>1343.7</v>
+        <v>3696.2</v>
       </c>
       <c r="E19">
-        <v>52723</v>
+        <v>187872.1</v>
       </c>
       <c r="F19">
-        <v>14682.1</v>
+        <v>54331.2</v>
       </c>
       <c r="G19">
-        <v>9.24</v>
+        <v>11.06</v>
       </c>
       <c r="H19">
-        <v>0.32</v>
+        <v>0.65</v>
       </c>
       <c r="I19">
-        <v>4054213</v>
+        <v>10691073</v>
       </c>
       <c r="J19">
-        <v>1300.4</v>
+        <v>1757.3</v>
       </c>
       <c r="K19">
-        <v>362.1</v>
+        <v>508.2</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="N19" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2271,43 +2169,43 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>251.4</v>
+        <v>420.9</v>
       </c>
       <c r="D20">
-        <v>100.4</v>
+        <v>893.1999999999999</v>
       </c>
       <c r="E20">
-        <v>2942.3</v>
+        <v>8156.099999999999</v>
       </c>
       <c r="F20">
-        <v>1482.4</v>
+        <v>18088.5</v>
       </c>
       <c r="G20">
-        <v>11.7</v>
+        <v>19.38</v>
       </c>
       <c r="H20">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="I20">
-        <v>444955</v>
+        <v>3004753</v>
       </c>
       <c r="J20">
-        <v>661.3</v>
+        <v>271.4</v>
       </c>
       <c r="K20">
-        <v>333.2</v>
+        <v>602</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M20" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="N20" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2315,43 +2213,43 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>344.6</v>
+        <v>656.9</v>
       </c>
       <c r="D21">
-        <v>160.9</v>
+        <v>1079.9</v>
       </c>
       <c r="E21">
-        <v>4813.799999999999</v>
+        <v>8527</v>
       </c>
       <c r="F21">
-        <v>2542.4</v>
+        <v>18655.1</v>
       </c>
       <c r="G21">
-        <v>13.97</v>
+        <v>12.98</v>
       </c>
       <c r="H21">
-        <v>0.58</v>
+        <v>2.67</v>
       </c>
       <c r="I21">
-        <v>428827</v>
+        <v>2938314</v>
       </c>
       <c r="J21">
-        <v>1122.6</v>
+        <v>290.2</v>
       </c>
       <c r="K21">
-        <v>592.9</v>
+        <v>634.9</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="N21" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2359,43 +2257,43 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>584.8</v>
+        <v>973.7</v>
       </c>
       <c r="D22">
-        <v>213.9</v>
+        <v>1403.1</v>
       </c>
       <c r="E22">
-        <v>7398.699999999999</v>
+        <v>14408.9</v>
       </c>
       <c r="F22">
-        <v>3090.6</v>
+        <v>28095.2</v>
       </c>
       <c r="G22">
-        <v>12.65</v>
+        <v>14.8</v>
       </c>
       <c r="H22">
-        <v>0.48</v>
+        <v>3.08</v>
       </c>
       <c r="I22">
-        <v>873782</v>
+        <v>5943067</v>
       </c>
       <c r="J22">
-        <v>846.7</v>
+        <v>242.4</v>
       </c>
       <c r="K22">
-        <v>353.7</v>
+        <v>472.7</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M22" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="N22" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2403,43 +2301,43 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>8915</v>
+        <v>336.3</v>
       </c>
       <c r="D23">
-        <v>1801.8</v>
+        <v>612.6</v>
       </c>
       <c r="E23">
-        <v>84348.09999999999</v>
+        <v>6055.9</v>
       </c>
       <c r="F23">
-        <v>20195.3</v>
+        <v>10507.5</v>
       </c>
       <c r="G23">
-        <v>9.460000000000001</v>
+        <v>18.01</v>
       </c>
       <c r="H23">
-        <v>0.3</v>
+        <v>0.55</v>
       </c>
       <c r="I23">
-        <v>5420337</v>
+        <v>699139</v>
       </c>
       <c r="J23">
-        <v>1556.1</v>
+        <v>866.2</v>
       </c>
       <c r="K23">
-        <v>372.6</v>
+        <v>1502.9</v>
       </c>
       <c r="L23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="M23" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="N23" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2447,43 +2345,43 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>10774.2</v>
+        <v>340.5</v>
       </c>
       <c r="D24">
-        <v>1618.1</v>
+        <v>588.9</v>
       </c>
       <c r="E24">
-        <v>108327.9</v>
+        <v>7135.4</v>
       </c>
       <c r="F24">
-        <v>21620.1</v>
+        <v>12116.6</v>
       </c>
       <c r="G24">
-        <v>10.05</v>
+        <v>20.96</v>
       </c>
       <c r="H24">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="I24">
-        <v>5270736</v>
+        <v>629076</v>
       </c>
       <c r="J24">
-        <v>2055.3</v>
+        <v>1134.3</v>
       </c>
       <c r="K24">
-        <v>410.2</v>
+        <v>1926.1</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="N24" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2491,43 +2389,43 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>19679.8</v>
+        <v>637.2</v>
       </c>
       <c r="D25">
-        <v>3265.6</v>
+        <v>831.6999999999999</v>
       </c>
       <c r="E25">
-        <v>198531.1</v>
+        <v>11900.2</v>
       </c>
       <c r="F25">
-        <v>39891.59999999999</v>
+        <v>18289.8</v>
       </c>
       <c r="G25">
-        <v>10.09</v>
+        <v>18.68</v>
       </c>
       <c r="H25">
-        <v>0.3</v>
+        <v>1.87</v>
       </c>
       <c r="I25">
-        <v>10691073</v>
+        <v>1328215</v>
       </c>
       <c r="J25">
-        <v>1857</v>
+        <v>896</v>
       </c>
       <c r="K25">
-        <v>373.1</v>
+        <v>1377</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M25" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="N25" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2535,43 +2433,43 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C26">
-        <v>765.8</v>
+        <v>705.1</v>
       </c>
       <c r="D26">
-        <v>264.7</v>
+        <v>1202.3</v>
       </c>
       <c r="E26">
-        <v>8905.9</v>
+        <v>7979</v>
       </c>
       <c r="F26">
-        <v>3351</v>
+        <v>16937.6</v>
       </c>
       <c r="G26">
-        <v>11.63</v>
+        <v>11.32</v>
       </c>
       <c r="H26">
-        <v>0.26</v>
+        <v>1.74</v>
       </c>
       <c r="I26">
-        <v>3004753</v>
+        <v>2795414</v>
       </c>
       <c r="J26">
-        <v>296.4</v>
+        <v>285.4</v>
       </c>
       <c r="K26">
-        <v>111.5</v>
+        <v>605.9</v>
       </c>
       <c r="L26" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M26" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="N26" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2579,43 +2477,43 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C27">
-        <v>1640.8</v>
+        <v>745.4</v>
       </c>
       <c r="D27">
-        <v>542.4</v>
+        <v>1075.5</v>
       </c>
       <c r="E27">
-        <v>14181.7</v>
+        <v>15277.3</v>
       </c>
       <c r="F27">
-        <v>5194.500000000001</v>
+        <v>19903.5</v>
       </c>
       <c r="G27">
-        <v>8.640000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="H27">
-        <v>0.24</v>
+        <v>1.18</v>
       </c>
       <c r="I27">
-        <v>2938314</v>
+        <v>2726489</v>
       </c>
       <c r="J27">
-        <v>482.6</v>
+        <v>560.3</v>
       </c>
       <c r="K27">
-        <v>176.8</v>
+        <v>730</v>
       </c>
       <c r="L27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M27" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="N27" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2623,43 +2521,43 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C28">
-        <v>2390.4</v>
+        <v>1328.8</v>
       </c>
       <c r="D28">
-        <v>817.1</v>
+        <v>1840.3</v>
       </c>
       <c r="E28">
-        <v>22966.1</v>
+        <v>20251.9</v>
       </c>
       <c r="F28">
-        <v>9610.6</v>
+        <v>29465.8</v>
       </c>
       <c r="G28">
-        <v>9.609999999999999</v>
+        <v>15.24</v>
       </c>
       <c r="H28">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="I28">
-        <v>5943067</v>
+        <v>5521903</v>
       </c>
       <c r="J28">
-        <v>386.4</v>
+        <v>366.8</v>
       </c>
       <c r="K28">
-        <v>161.7</v>
+        <v>533.6</v>
       </c>
       <c r="L28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M28" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="N28" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2667,43 +2565,43 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C29">
-        <v>654.2</v>
+        <v>26730.9</v>
       </c>
       <c r="D29">
-        <v>227.3</v>
+        <v>6980.1</v>
       </c>
       <c r="E29">
-        <v>6944.5</v>
+        <v>223340.1</v>
       </c>
       <c r="F29">
-        <v>3326.7</v>
+        <v>86084.10000000001</v>
       </c>
       <c r="G29">
-        <v>10.62</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="H29">
-        <v>1.03</v>
+        <v>0.82</v>
       </c>
       <c r="I29">
-        <v>699139</v>
+        <v>34741634</v>
       </c>
       <c r="J29">
-        <v>993.3</v>
+        <v>642.9</v>
       </c>
       <c r="K29">
-        <v>475.8</v>
+        <v>247.8</v>
       </c>
       <c r="L29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M29" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2711,43 +2609,43 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>496.9999999999999</v>
+        <v>30694.7</v>
       </c>
       <c r="D30">
-        <v>200.5</v>
+        <v>6330</v>
       </c>
       <c r="E30">
-        <v>5697.7</v>
+        <v>339825</v>
       </c>
       <c r="F30">
-        <v>2989.1</v>
+        <v>95638.8</v>
       </c>
       <c r="G30">
-        <v>11.46</v>
+        <v>11.07</v>
       </c>
       <c r="H30">
-        <v>0.99</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I30">
-        <v>629076</v>
+        <v>32501940</v>
       </c>
       <c r="J30">
-        <v>905.7</v>
+        <v>1045.6</v>
       </c>
       <c r="K30">
-        <v>475.2</v>
+        <v>294.3</v>
       </c>
       <c r="L30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M30" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2755,43 +2653,43 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C31">
-        <v>1109.6</v>
+        <v>57316.4</v>
       </c>
       <c r="D31">
-        <v>419.7</v>
+        <v>11827.6</v>
       </c>
       <c r="E31">
-        <v>12344.7</v>
+        <v>575273.9</v>
       </c>
       <c r="F31">
-        <v>5981.7</v>
+        <v>158407</v>
       </c>
       <c r="G31">
-        <v>11.13</v>
+        <v>10.04</v>
       </c>
       <c r="H31">
-        <v>0.85</v>
+        <v>0.57</v>
       </c>
       <c r="I31">
-        <v>1328215</v>
+        <v>67243574</v>
       </c>
       <c r="J31">
-        <v>929.4</v>
+        <v>855.5</v>
       </c>
       <c r="K31">
-        <v>450.4</v>
+        <v>235.6</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M31" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="N31" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2799,43 +2697,43 @@
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C32">
-        <v>1425.8</v>
+        <v>3017.2</v>
       </c>
       <c r="D32">
-        <v>496.1</v>
+        <v>2335.6</v>
       </c>
       <c r="E32">
-        <v>14107.8</v>
+        <v>36291.2</v>
       </c>
       <c r="F32">
-        <v>6050.1</v>
+        <v>31891.1</v>
       </c>
       <c r="G32">
-        <v>9.890000000000001</v>
+        <v>12.03</v>
       </c>
       <c r="H32">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="I32">
-        <v>2795414</v>
+        <v>5496629</v>
       </c>
       <c r="J32">
-        <v>504.7</v>
+        <v>660.2</v>
       </c>
       <c r="K32">
-        <v>216.4</v>
+        <v>580.2</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="N32" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2843,43 +2741,43 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C33">
-        <v>1649.8</v>
+        <v>2990.5</v>
       </c>
       <c r="D33">
-        <v>552.5</v>
+        <v>2185.8</v>
       </c>
       <c r="E33">
-        <v>18693.39999999999</v>
+        <v>40054.3</v>
       </c>
       <c r="F33">
-        <v>6981.700000000001</v>
+        <v>32217.3</v>
       </c>
       <c r="G33">
-        <v>11.33</v>
+        <v>13.39</v>
       </c>
       <c r="H33">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="I33">
-        <v>2726489</v>
+        <v>5210329</v>
       </c>
       <c r="J33">
-        <v>685.6</v>
+        <v>768.7</v>
       </c>
       <c r="K33">
-        <v>256.1</v>
+        <v>618.3</v>
       </c>
       <c r="L33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="M33" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="N33" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2887,43 +2785,43 @@
         <v>24</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C34">
-        <v>3015.8</v>
+        <v>5964.2</v>
       </c>
       <c r="D34">
-        <v>940.8</v>
+        <v>3702.2</v>
       </c>
       <c r="E34">
-        <v>32789.5</v>
+        <v>74648.2</v>
       </c>
       <c r="F34">
-        <v>12098.3</v>
+        <v>49009.6</v>
       </c>
       <c r="G34">
-        <v>10.87</v>
+        <v>12.52</v>
       </c>
       <c r="H34">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="I34">
-        <v>5521903</v>
+        <v>10706958</v>
       </c>
       <c r="J34">
-        <v>593.8</v>
+        <v>697.2</v>
       </c>
       <c r="K34">
-        <v>219.1</v>
+        <v>457.7</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M34" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="N34" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2931,43 +2829,43 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35">
-        <v>34442.39999999999</v>
+        <v>7381.5</v>
       </c>
       <c r="D35">
-        <v>6860.9</v>
+        <v>2605.6</v>
       </c>
       <c r="E35">
-        <v>267999.1</v>
+        <v>87674.2</v>
       </c>
       <c r="F35">
-        <v>61937.7</v>
+        <v>40180</v>
       </c>
       <c r="G35">
-        <v>7.78</v>
+        <v>11.88</v>
       </c>
       <c r="H35">
-        <v>0.21</v>
+        <v>0.92</v>
       </c>
       <c r="I35">
-        <v>34741634</v>
+        <v>5086075</v>
       </c>
       <c r="J35">
-        <v>771.4</v>
+        <v>1723.8</v>
       </c>
       <c r="K35">
-        <v>178.3</v>
+        <v>790</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M35" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="N35" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2975,43 +2873,43 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36">
-        <v>35358.8</v>
+        <v>6744.2</v>
       </c>
       <c r="D36">
-        <v>6461.7</v>
+        <v>2477.5</v>
       </c>
       <c r="E36">
-        <v>321601</v>
+        <v>84498.10000000001</v>
       </c>
       <c r="F36">
-        <v>74176.59999999999</v>
+        <v>41857.4</v>
       </c>
       <c r="G36">
-        <v>9.1</v>
+        <v>12.53</v>
       </c>
       <c r="H36">
-        <v>0.36</v>
+        <v>1.17</v>
       </c>
       <c r="I36">
-        <v>32501940</v>
+        <v>4679207</v>
       </c>
       <c r="J36">
-        <v>989.5</v>
+        <v>1805.8</v>
       </c>
       <c r="K36">
-        <v>228.2</v>
+        <v>894.5</v>
       </c>
       <c r="L36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M36" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3019,43 +2917,43 @@
         <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37">
-        <v>69780.2</v>
+        <v>14097.5</v>
       </c>
       <c r="D37">
-        <v>12954</v>
+        <v>4184</v>
       </c>
       <c r="E37">
-        <v>603257.8999999999</v>
+        <v>174866.4</v>
       </c>
       <c r="F37">
-        <v>136360.7</v>
+        <v>68601.7</v>
       </c>
       <c r="G37">
-        <v>8.65</v>
+        <v>12.4</v>
       </c>
       <c r="H37">
-        <v>0.29</v>
+        <v>0.92</v>
       </c>
       <c r="I37">
-        <v>67243574</v>
+        <v>9765282</v>
       </c>
       <c r="J37">
-        <v>897.1</v>
+        <v>1790.7</v>
       </c>
       <c r="K37">
-        <v>202.8</v>
+        <v>702.5</v>
       </c>
       <c r="L37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3063,43 +2961,43 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <v>177.4</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>230.3</v>
+        <v>97.7</v>
       </c>
       <c r="E38">
-        <v>1417.1</v>
+        <v>1325.3</v>
       </c>
       <c r="F38">
-        <v>1964.7</v>
+        <v>2637.5</v>
       </c>
       <c r="G38">
-        <v>7.99</v>
+        <v>34.88</v>
       </c>
       <c r="H38">
-        <v>0.3</v>
+        <v>5.68</v>
       </c>
       <c r="I38">
-        <v>1926961</v>
+        <v>177121</v>
       </c>
       <c r="J38">
-        <v>73.5</v>
+        <v>748.2</v>
       </c>
       <c r="K38">
-        <v>102</v>
+        <v>1489.1</v>
       </c>
       <c r="L38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M38" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="N38" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3107,43 +3005,43 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39">
-        <v>224.8</v>
+        <v>59.4</v>
       </c>
       <c r="D39">
-        <v>184.3</v>
+        <v>163.1</v>
       </c>
       <c r="E39">
-        <v>2310.1</v>
+        <v>1671</v>
       </c>
       <c r="F39">
-        <v>1978.8</v>
+        <v>3840.5</v>
       </c>
       <c r="G39">
-        <v>10.28</v>
+        <v>28.13</v>
       </c>
       <c r="H39">
-        <v>0.2</v>
+        <v>3.36</v>
       </c>
       <c r="I39">
-        <v>1790306</v>
+        <v>186896</v>
       </c>
       <c r="J39">
-        <v>129</v>
+        <v>894.1</v>
       </c>
       <c r="K39">
-        <v>110.5</v>
+        <v>2054.9</v>
       </c>
       <c r="L39" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M39" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="N39" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3151,43 +3049,43 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>327.6</v>
+        <v>63.3</v>
       </c>
       <c r="D40">
-        <v>405.7</v>
+        <v>149.8</v>
       </c>
       <c r="E40">
-        <v>3146.2</v>
+        <v>2389.4</v>
       </c>
       <c r="F40">
-        <v>3634.900000000001</v>
+        <v>4878.6</v>
       </c>
       <c r="G40">
-        <v>9.6</v>
+        <v>37.75</v>
       </c>
       <c r="H40">
-        <v>0.35</v>
+        <v>3.64</v>
       </c>
       <c r="I40">
-        <v>3717267</v>
+        <v>364017</v>
       </c>
       <c r="J40">
-        <v>84.59999999999999</v>
+        <v>656.4</v>
       </c>
       <c r="K40">
-        <v>97.8</v>
+        <v>1340.2</v>
       </c>
       <c r="L40" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M40" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="N40" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3195,131 +3093,131 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C41">
-        <v>87860.3</v>
+        <v>56343.7</v>
       </c>
       <c r="D41">
-        <v>211410.1</v>
+        <v>8837.4</v>
       </c>
       <c r="E41">
-        <v>875495.1</v>
+        <v>505484.9</v>
       </c>
       <c r="F41">
-        <v>2484123.9</v>
+        <v>97509.7</v>
       </c>
       <c r="G41">
-        <v>9.960000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="H41">
-        <v>1.27</v>
+        <v>0.28</v>
       </c>
       <c r="I41">
-        <v>83057366</v>
+        <v>29127637</v>
       </c>
       <c r="J41">
-        <v>1054.1</v>
+        <v>1735.4</v>
       </c>
       <c r="K41">
-        <v>2990.9</v>
+        <v>334.8</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="M41" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C42">
-        <v>4835.6</v>
+        <v>59943.5</v>
       </c>
       <c r="D42">
-        <v>1811.9</v>
+        <v>6957.2</v>
       </c>
       <c r="E42">
-        <v>37982.9</v>
+        <v>677643.2</v>
       </c>
       <c r="F42">
-        <v>15772.3</v>
+        <v>96876.8</v>
       </c>
       <c r="G42">
-        <v>7.85</v>
+        <v>11.3</v>
       </c>
       <c r="H42">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I42">
-        <v>5496629</v>
+        <v>28325684</v>
       </c>
       <c r="J42">
-        <v>691</v>
+        <v>2392.3</v>
       </c>
       <c r="K42">
-        <v>286.9</v>
+        <v>342</v>
       </c>
       <c r="L42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M42" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43">
-        <v>4227.599999999999</v>
+        <v>116198.7</v>
       </c>
       <c r="D43">
-        <v>1176.5</v>
+        <v>14251.2</v>
       </c>
       <c r="E43">
-        <v>36390.1</v>
+        <v>1208990.8</v>
       </c>
       <c r="F43">
-        <v>10488.3</v>
+        <v>167596.1</v>
       </c>
       <c r="G43">
-        <v>8.609999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="H43">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="I43">
-        <v>5210329</v>
+        <v>59641488</v>
       </c>
       <c r="J43">
-        <v>698.4</v>
+        <v>2027.1</v>
       </c>
       <c r="K43">
-        <v>201.3</v>
+        <v>281</v>
       </c>
       <c r="L43" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M43" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="N43" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3327,131 +3225,131 @@
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>9037</v>
+        <v>842.1999999999999</v>
       </c>
       <c r="D44">
-        <v>3054.6</v>
+        <v>845.3</v>
       </c>
       <c r="E44">
-        <v>73821.89999999999</v>
+        <v>9874</v>
       </c>
       <c r="F44">
-        <v>25793.6</v>
+        <v>12384</v>
       </c>
       <c r="G44">
-        <v>8.17</v>
+        <v>11.72</v>
       </c>
       <c r="H44">
-        <v>0.07000000000000001</v>
+        <v>1.47</v>
       </c>
       <c r="I44">
-        <v>10706958</v>
+        <v>1026584</v>
       </c>
       <c r="J44">
-        <v>689.5</v>
+        <v>961.8</v>
       </c>
       <c r="K44">
-        <v>240.9</v>
+        <v>1206.3</v>
       </c>
       <c r="L44" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M44" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="N44" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45">
-        <v>7562.200000000001</v>
+        <v>626.5</v>
       </c>
       <c r="D45">
-        <v>1130.4</v>
+        <v>829.3</v>
       </c>
       <c r="E45">
-        <v>78800.8</v>
+        <v>9257.5</v>
       </c>
       <c r="F45">
-        <v>14307.7</v>
+        <v>14832.9</v>
       </c>
       <c r="G45">
-        <v>10.42</v>
+        <v>14.78</v>
       </c>
       <c r="H45">
-        <v>0.29</v>
+        <v>1.77</v>
       </c>
       <c r="I45">
-        <v>5086075</v>
+        <v>880883</v>
       </c>
       <c r="J45">
-        <v>1549.3</v>
+        <v>1050.9</v>
       </c>
       <c r="K45">
-        <v>281.3</v>
+        <v>1683.9</v>
       </c>
       <c r="L45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M45" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N45" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>6970.599999999999</v>
+        <v>1404.9</v>
       </c>
       <c r="D46">
-        <v>1122</v>
+        <v>1300.4</v>
       </c>
       <c r="E46">
-        <v>75244.20000000001</v>
+        <v>18701.2</v>
       </c>
       <c r="F46">
-        <v>16382.6</v>
+        <v>21768.7</v>
       </c>
       <c r="G46">
-        <v>10.79</v>
+        <v>13.31</v>
       </c>
       <c r="H46">
-        <v>0.53</v>
+        <v>1.65</v>
       </c>
       <c r="I46">
-        <v>4679207</v>
+        <v>1907467</v>
       </c>
       <c r="J46">
-        <v>1608.1</v>
+        <v>980.4</v>
       </c>
       <c r="K46">
-        <v>350.1</v>
+        <v>1141.2</v>
       </c>
       <c r="L46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M46" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="N46" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3459,131 +3357,131 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C47">
-        <v>14532.8</v>
+        <v>3200.6</v>
       </c>
       <c r="D47">
-        <v>2013.1</v>
+        <v>1246.3</v>
       </c>
       <c r="E47">
-        <v>158387</v>
+        <v>38538.6</v>
       </c>
       <c r="F47">
-        <v>28225.3</v>
+        <v>20740.2</v>
       </c>
       <c r="G47">
-        <v>10.9</v>
+        <v>12.04</v>
       </c>
       <c r="H47">
-        <v>0.38</v>
+        <v>1.29</v>
       </c>
       <c r="I47">
-        <v>9765282</v>
+        <v>1488280</v>
       </c>
       <c r="J47">
-        <v>1621.9</v>
+        <v>2589.5</v>
       </c>
       <c r="K47">
-        <v>289</v>
+        <v>1393.6</v>
       </c>
       <c r="L47" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M47" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="N47" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48">
-        <v>39.2</v>
+        <v>3843.2</v>
       </c>
       <c r="D48">
-        <v>39</v>
+        <v>1340</v>
       </c>
       <c r="E48">
-        <v>1113.4</v>
+        <v>57675.6</v>
       </c>
       <c r="F48">
-        <v>743.6</v>
+        <v>24923.3</v>
       </c>
       <c r="G48">
-        <v>28.4</v>
+        <v>15.01</v>
       </c>
       <c r="H48">
-        <v>4.65</v>
+        <v>0.93</v>
       </c>
       <c r="I48">
-        <v>177121</v>
+        <v>1303845</v>
       </c>
       <c r="J48">
-        <v>628.6</v>
+        <v>4423.5</v>
       </c>
       <c r="K48">
-        <v>419.8</v>
+        <v>1911.5</v>
       </c>
       <c r="L48" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M48" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="N48" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49">
-        <v>86.40000000000001</v>
+        <v>7013.1</v>
       </c>
       <c r="D49">
-        <v>44.3</v>
+        <v>1963.3</v>
       </c>
       <c r="E49">
-        <v>1900.3</v>
+        <v>100948.5</v>
       </c>
       <c r="F49">
-        <v>1048.5</v>
+        <v>36207.1</v>
       </c>
       <c r="G49">
-        <v>21.99</v>
+        <v>14.39</v>
       </c>
       <c r="H49">
-        <v>0.57</v>
+        <v>0.89</v>
       </c>
       <c r="I49">
-        <v>186896</v>
+        <v>2792125</v>
       </c>
       <c r="J49">
-        <v>1016.8</v>
+        <v>3615.5</v>
       </c>
       <c r="K49">
-        <v>561</v>
+        <v>1296.8</v>
       </c>
       <c r="L49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="M49" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="N49" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3591,131 +3489,131 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C50">
-        <v>106.6</v>
+        <v>157.9</v>
       </c>
       <c r="D50">
-        <v>79.7</v>
+        <v>252.6</v>
       </c>
       <c r="E50">
-        <v>2561.2</v>
+        <v>2219.8</v>
       </c>
       <c r="F50">
-        <v>1701.2</v>
+        <v>4591</v>
       </c>
       <c r="G50">
-        <v>24.03</v>
+        <v>14.06</v>
       </c>
       <c r="H50">
-        <v>1.15</v>
+        <v>2.53</v>
       </c>
       <c r="I50">
-        <v>364017</v>
+        <v>310943</v>
       </c>
       <c r="J50">
-        <v>703.6</v>
+        <v>713.9</v>
       </c>
       <c r="K50">
-        <v>467.3</v>
+        <v>1476.5</v>
       </c>
       <c r="L50" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M50" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="N50" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C51">
-        <v>52652.8</v>
+        <v>221.5</v>
       </c>
       <c r="D51">
-        <v>7566.4</v>
+        <v>307.2</v>
       </c>
       <c r="E51">
-        <v>412124.7</v>
+        <v>3649.2</v>
       </c>
       <c r="F51">
-        <v>77971.20000000001</v>
+        <v>5220</v>
       </c>
       <c r="G51">
-        <v>7.83</v>
+        <v>16.47</v>
       </c>
       <c r="H51">
         <v>0.31</v>
       </c>
       <c r="I51">
-        <v>29127637</v>
+        <v>314851</v>
       </c>
       <c r="J51">
-        <v>1414.9</v>
+        <v>1159</v>
       </c>
       <c r="K51">
-        <v>267.7</v>
+        <v>1657.9</v>
       </c>
       <c r="L51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="N51" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52">
-        <v>58262</v>
+        <v>354.6</v>
       </c>
       <c r="D52">
-        <v>6031.200000000001</v>
+        <v>471.4</v>
       </c>
       <c r="E52">
-        <v>576682.2</v>
+        <v>5343.8</v>
       </c>
       <c r="F52">
-        <v>71607</v>
+        <v>7977.4</v>
       </c>
       <c r="G52">
-        <v>9.9</v>
+        <v>15.07</v>
       </c>
       <c r="H52">
-        <v>0.18</v>
+        <v>1.06</v>
       </c>
       <c r="I52">
-        <v>28325684</v>
+        <v>625794</v>
       </c>
       <c r="J52">
-        <v>2035.9</v>
+        <v>853.9</v>
       </c>
       <c r="K52">
-        <v>252.8</v>
+        <v>1274.8</v>
       </c>
       <c r="L52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M52" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="N52" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3723,131 +3621,131 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C53">
-        <v>110910.6</v>
+        <v>243.2</v>
       </c>
       <c r="D53">
-        <v>12988.8</v>
+        <v>283.7</v>
       </c>
       <c r="E53">
-        <v>1017432.2</v>
+        <v>2661.8</v>
       </c>
       <c r="F53">
-        <v>145489.8</v>
+        <v>4557.2</v>
       </c>
       <c r="G53">
-        <v>9.17</v>
+        <v>10.94</v>
       </c>
       <c r="H53">
-        <v>0.22</v>
+        <v>2.76</v>
       </c>
       <c r="I53">
-        <v>59641488</v>
+        <v>248495</v>
       </c>
       <c r="J53">
-        <v>1705.9</v>
+        <v>1071.2</v>
       </c>
       <c r="K53">
-        <v>243.9</v>
+        <v>1833.9</v>
       </c>
       <c r="L53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M53" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="N53" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C54">
-        <v>828.4000000000001</v>
+        <v>169.1</v>
       </c>
       <c r="D54">
-        <v>336.5</v>
+        <v>264.2</v>
       </c>
       <c r="E54">
-        <v>5535.9</v>
+        <v>2716.1</v>
       </c>
       <c r="F54">
-        <v>2511.4</v>
+        <v>4685.9</v>
       </c>
       <c r="G54">
-        <v>6.68</v>
+        <v>16.06</v>
       </c>
       <c r="H54">
-        <v>0.23</v>
+        <v>1.02</v>
       </c>
       <c r="I54">
-        <v>1026584</v>
+        <v>265547</v>
       </c>
       <c r="J54">
-        <v>539.3</v>
+        <v>1022.8</v>
       </c>
       <c r="K54">
-        <v>244.6</v>
+        <v>1764.6</v>
       </c>
       <c r="L54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M54" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="N54" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C55">
-        <v>657.8</v>
+        <v>401.1</v>
       </c>
       <c r="D55">
-        <v>265.3</v>
+        <v>417.7</v>
       </c>
       <c r="E55">
-        <v>5439.5</v>
+        <v>5156.8</v>
       </c>
       <c r="F55">
-        <v>2936.5</v>
+        <v>7427.6</v>
       </c>
       <c r="G55">
-        <v>8.27</v>
+        <v>12.86</v>
       </c>
       <c r="H55">
-        <v>0.8</v>
+        <v>2.51</v>
       </c>
       <c r="I55">
-        <v>880883</v>
+        <v>514042</v>
       </c>
       <c r="J55">
-        <v>617.5</v>
+        <v>1003.2</v>
       </c>
       <c r="K55">
-        <v>333.4</v>
+        <v>1444.9</v>
       </c>
       <c r="L55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="M55" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="N55" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3855,131 +3753,131 @@
         <v>32</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C56">
-        <v>1450.6</v>
+        <v>423.7</v>
       </c>
       <c r="D56">
-        <v>636.8</v>
+        <v>466.6</v>
       </c>
       <c r="E56">
-        <v>10887.4</v>
+        <v>6080.7</v>
       </c>
       <c r="F56">
-        <v>5804.5</v>
+        <v>7588.7</v>
       </c>
       <c r="G56">
-        <v>7.51</v>
+        <v>14.35</v>
       </c>
       <c r="H56">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>1907467</v>
+        <v>314211</v>
       </c>
       <c r="J56">
-        <v>570.8</v>
+        <v>1935.2</v>
       </c>
       <c r="K56">
-        <v>304.3</v>
+        <v>2415.2</v>
       </c>
       <c r="L56" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M56" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="N56" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C57">
-        <v>2285.6</v>
+        <v>604.4</v>
       </c>
       <c r="D57">
-        <v>750.1999999999999</v>
+        <v>431.9</v>
       </c>
       <c r="E57">
-        <v>22362.2</v>
+        <v>6468.6</v>
       </c>
       <c r="F57">
-        <v>8838.6</v>
+        <v>5122.4</v>
       </c>
       <c r="G57">
-        <v>9.779999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="H57">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="I57">
-        <v>1488280</v>
+        <v>307342</v>
       </c>
       <c r="J57">
-        <v>1502.6</v>
+        <v>2104.7</v>
       </c>
       <c r="K57">
-        <v>593.9</v>
+        <v>1666.7</v>
       </c>
       <c r="L57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="M57" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="N57" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58">
-        <v>2345.2</v>
+        <v>1011.5</v>
       </c>
       <c r="D58">
-        <v>825.3000000000001</v>
+        <v>637.9</v>
       </c>
       <c r="E58">
-        <v>26972</v>
+        <v>12078.7</v>
       </c>
       <c r="F58">
-        <v>12453.6</v>
+        <v>9486</v>
       </c>
       <c r="G58">
-        <v>11.5</v>
+        <v>11.94</v>
       </c>
       <c r="H58">
-        <v>0.9399999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="I58">
-        <v>1303845</v>
+        <v>621553</v>
       </c>
       <c r="J58">
-        <v>2068.7</v>
+        <v>1943.3</v>
       </c>
       <c r="K58">
-        <v>955.1</v>
+        <v>1526.2</v>
       </c>
       <c r="L58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M58" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="N58" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3987,131 +3885,131 @@
         <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C59">
-        <v>4623.2</v>
+        <v>6726.2</v>
       </c>
       <c r="D59">
-        <v>1533.7</v>
+        <v>2574.6</v>
       </c>
       <c r="E59">
-        <v>51766.4</v>
+        <v>65179.1</v>
       </c>
       <c r="F59">
-        <v>22026.3</v>
+        <v>35118.2</v>
       </c>
       <c r="G59">
-        <v>11.2</v>
+        <v>9.69</v>
       </c>
       <c r="H59">
-        <v>0.79</v>
+        <v>1.09</v>
       </c>
       <c r="I59">
-        <v>2792125</v>
+        <v>8755516</v>
       </c>
       <c r="J59">
-        <v>1854</v>
+        <v>744.4</v>
       </c>
       <c r="K59">
-        <v>788.9</v>
+        <v>401.1</v>
       </c>
       <c r="L59" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M59" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="N59" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C60">
-        <v>263.6</v>
+        <v>9397.799999999999</v>
       </c>
       <c r="D60">
-        <v>94</v>
+        <v>2350.3</v>
       </c>
       <c r="E60">
-        <v>2852.6</v>
+        <v>105259.6</v>
       </c>
       <c r="F60">
-        <v>1444.9</v>
+        <v>38860.5</v>
       </c>
       <c r="G60">
-        <v>10.82</v>
+        <v>11.2</v>
       </c>
       <c r="H60">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="I60">
-        <v>310943</v>
+        <v>8642743</v>
       </c>
       <c r="J60">
-        <v>917.4</v>
+        <v>1217.9</v>
       </c>
       <c r="K60">
-        <v>464.7</v>
+        <v>449.6</v>
       </c>
       <c r="L60" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="M60" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="N60" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C61">
-        <v>312</v>
+        <v>16110.3</v>
       </c>
       <c r="D61">
-        <v>133.1</v>
+        <v>3998.9</v>
       </c>
       <c r="E61">
-        <v>3852.1</v>
+        <v>172863.3</v>
       </c>
       <c r="F61">
-        <v>2249.5</v>
+        <v>60980.4</v>
       </c>
       <c r="G61">
-        <v>12.35</v>
+        <v>10.73</v>
       </c>
       <c r="H61">
-        <v>1.36</v>
+        <v>0.9</v>
       </c>
       <c r="I61">
-        <v>314851</v>
+        <v>17398259</v>
       </c>
       <c r="J61">
-        <v>1223.5</v>
+        <v>993.6</v>
       </c>
       <c r="K61">
-        <v>714.5</v>
+        <v>350.5</v>
       </c>
       <c r="L61" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M61" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="N61" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4119,131 +4017,131 @@
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>561.2</v>
+        <v>132.4</v>
       </c>
       <c r="D62">
-        <v>196.6</v>
+        <v>406.3</v>
       </c>
       <c r="E62">
-        <v>6352.4</v>
+        <v>2661.6</v>
       </c>
       <c r="F62">
-        <v>3427</v>
+        <v>10018.2</v>
       </c>
       <c r="G62">
-        <v>11.32</v>
+        <v>20.1</v>
       </c>
       <c r="H62">
-        <v>1.58</v>
+        <v>3.44</v>
       </c>
       <c r="I62">
-        <v>625794</v>
+        <v>2661342</v>
       </c>
       <c r="J62">
-        <v>1015.1</v>
+        <v>100</v>
       </c>
       <c r="K62">
-        <v>547.6</v>
+        <v>376.4</v>
       </c>
       <c r="L62" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="M62" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="N62" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C63">
-        <v>261.8</v>
+        <v>281.6</v>
       </c>
       <c r="D63">
-        <v>84.59999999999999</v>
+        <v>661.7</v>
       </c>
       <c r="E63">
-        <v>2499.8</v>
+        <v>4991.6</v>
       </c>
       <c r="F63">
-        <v>1474.6</v>
+        <v>15143.2</v>
       </c>
       <c r="G63">
-        <v>9.550000000000001</v>
+        <v>17.73</v>
       </c>
       <c r="H63">
-        <v>1.92</v>
+        <v>3.62</v>
       </c>
       <c r="I63">
-        <v>248495</v>
+        <v>2706032</v>
       </c>
       <c r="J63">
-        <v>1006</v>
+        <v>184.5</v>
       </c>
       <c r="K63">
-        <v>593.4</v>
+        <v>559.6</v>
       </c>
       <c r="L63" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M63" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="N63" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C64">
-        <v>300.2</v>
+        <v>352.5</v>
       </c>
       <c r="D64">
-        <v>105.1</v>
+        <v>789.6999999999999</v>
       </c>
       <c r="E64">
-        <v>4015.3</v>
+        <v>6039.2</v>
       </c>
       <c r="F64">
-        <v>1816.9</v>
+        <v>19128.3</v>
       </c>
       <c r="G64">
-        <v>13.38</v>
+        <v>17.13</v>
       </c>
       <c r="H64">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="I64">
-        <v>265547</v>
+        <v>5367374</v>
       </c>
       <c r="J64">
-        <v>1512.1</v>
+        <v>112.5</v>
       </c>
       <c r="K64">
-        <v>684.2</v>
+        <v>356.4</v>
       </c>
       <c r="L64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M64" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="N64" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4251,131 +4149,131 @@
         <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C65">
-        <v>556</v>
+        <v>30614.4</v>
       </c>
       <c r="D65">
-        <v>160.3</v>
+        <v>5249.6</v>
       </c>
       <c r="E65">
-        <v>6477.3</v>
+        <v>334423.7</v>
       </c>
       <c r="F65">
-        <v>2852.5</v>
+        <v>80388.2</v>
       </c>
       <c r="G65">
-        <v>11.65</v>
+        <v>10.92</v>
       </c>
       <c r="H65">
-        <v>1.37</v>
+        <v>0.65</v>
       </c>
       <c r="I65">
-        <v>514042</v>
+        <v>19570109</v>
       </c>
       <c r="J65">
-        <v>1260.1</v>
+        <v>1708.8</v>
       </c>
       <c r="K65">
-        <v>554.9</v>
+        <v>410.8</v>
       </c>
       <c r="L65" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M65" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="N65" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C66">
-        <v>337</v>
+        <v>40053.3</v>
       </c>
       <c r="D66">
-        <v>97.80000000000001</v>
+        <v>5223.4</v>
       </c>
       <c r="E66">
-        <v>3834.800000000001</v>
+        <v>494314.9</v>
       </c>
       <c r="F66">
-        <v>1461.2</v>
+        <v>88448.89999999999</v>
       </c>
       <c r="G66">
-        <v>11.38</v>
+        <v>12.34</v>
       </c>
       <c r="H66">
-        <v>0.8</v>
+        <v>0.53</v>
       </c>
       <c r="I66">
-        <v>314211</v>
+        <v>18365622</v>
       </c>
       <c r="J66">
-        <v>1220.5</v>
+        <v>2691.5</v>
       </c>
       <c r="K66">
-        <v>465</v>
+        <v>481.6</v>
       </c>
       <c r="L66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M66" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="N66" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>543</v>
+        <v>70662.10000000001</v>
       </c>
       <c r="D67">
-        <v>172.6</v>
+        <v>8938.6</v>
       </c>
       <c r="E67">
-        <v>5773.799999999999</v>
+        <v>866757.2</v>
       </c>
       <c r="F67">
-        <v>2425</v>
+        <v>140268.7</v>
       </c>
       <c r="G67">
-        <v>10.63</v>
+        <v>12.27</v>
       </c>
       <c r="H67">
-        <v>0.83</v>
+        <v>0.38</v>
       </c>
       <c r="I67">
-        <v>307342</v>
+        <v>37935731</v>
       </c>
       <c r="J67">
-        <v>1878.6</v>
+        <v>2284.8</v>
       </c>
       <c r="K67">
-        <v>789</v>
+        <v>369.8</v>
       </c>
       <c r="L67" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M67" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="N67" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -4383,131 +4281,131 @@
         <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C68">
-        <v>859</v>
+        <v>6626.1</v>
       </c>
       <c r="D68">
-        <v>186.3</v>
+        <v>2305</v>
       </c>
       <c r="E68">
-        <v>9637.799999999999</v>
+        <v>62789.6</v>
       </c>
       <c r="F68">
-        <v>2992</v>
+        <v>32675.8</v>
       </c>
       <c r="G68">
-        <v>11.22</v>
+        <v>9.48</v>
       </c>
       <c r="H68">
-        <v>0.86</v>
+        <v>1.21</v>
       </c>
       <c r="I68">
-        <v>621553</v>
+        <v>5428401</v>
       </c>
       <c r="J68">
-        <v>1550.6</v>
+        <v>1156.7</v>
       </c>
       <c r="K68">
-        <v>481.4</v>
+        <v>601.9</v>
       </c>
       <c r="L68" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M68" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="N68" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C69">
-        <v>8504.200000000001</v>
+        <v>5364.6</v>
       </c>
       <c r="D69">
-        <v>1334.6</v>
+        <v>2410.2</v>
       </c>
       <c r="E69">
-        <v>76458</v>
+        <v>64195.9</v>
       </c>
       <c r="F69">
-        <v>19220.1</v>
+        <v>39434.2</v>
       </c>
       <c r="G69">
-        <v>8.99</v>
+        <v>11.97</v>
       </c>
       <c r="H69">
-        <v>0.73</v>
+        <v>1.36</v>
       </c>
       <c r="I69">
-        <v>8755516</v>
+        <v>4855173</v>
       </c>
       <c r="J69">
-        <v>873.3</v>
+        <v>1322.2</v>
       </c>
       <c r="K69">
-        <v>219.5</v>
+        <v>812.2</v>
       </c>
       <c r="L69" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M69" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="N69" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C70">
-        <v>11933.6</v>
+        <v>11945.4</v>
       </c>
       <c r="D70">
-        <v>1808.9</v>
+        <v>3944.8</v>
       </c>
       <c r="E70">
-        <v>114090.3</v>
+        <v>127767.1</v>
       </c>
       <c r="F70">
-        <v>22376</v>
+        <v>60069.9</v>
       </c>
       <c r="G70">
-        <v>9.56</v>
+        <v>10.7</v>
       </c>
       <c r="H70">
-        <v>0.37</v>
+        <v>1.12</v>
       </c>
       <c r="I70">
-        <v>8642743</v>
+        <v>10283574</v>
       </c>
       <c r="J70">
-        <v>1320.1</v>
+        <v>1242.4</v>
       </c>
       <c r="K70">
-        <v>258.9</v>
+        <v>584.1</v>
       </c>
       <c r="L70" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M70" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="N70" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4515,131 +4413,131 @@
         <v>37</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C71">
-        <v>20342.6</v>
+        <v>17060.3</v>
       </c>
       <c r="D71">
-        <v>3027.9</v>
+        <v>3979.5</v>
       </c>
       <c r="E71">
-        <v>190631.7</v>
+        <v>216460.1</v>
       </c>
       <c r="F71">
-        <v>41656</v>
+        <v>62972.8</v>
       </c>
       <c r="G71">
-        <v>9.369999999999999</v>
+        <v>12.69</v>
       </c>
       <c r="H71">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="I71">
-        <v>17398259</v>
+        <v>9857376</v>
       </c>
       <c r="J71">
-        <v>1095.7</v>
+        <v>2195.9</v>
       </c>
       <c r="K71">
-        <v>239.4</v>
+        <v>638.8</v>
       </c>
       <c r="L71" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M71" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="N71" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C72">
-        <v>297.6</v>
+        <v>23473.8</v>
       </c>
       <c r="D72">
-        <v>236.9</v>
+        <v>4285.2</v>
       </c>
       <c r="E72">
-        <v>4613.7</v>
+        <v>277084</v>
       </c>
       <c r="F72">
-        <v>3964.2</v>
+        <v>71952.3</v>
       </c>
       <c r="G72">
-        <v>15.5</v>
+        <v>11.8</v>
       </c>
       <c r="H72">
-        <v>0.55</v>
+        <v>0.77</v>
       </c>
       <c r="I72">
-        <v>2661342</v>
+        <v>9455001</v>
       </c>
       <c r="J72">
-        <v>173.4</v>
+        <v>2930.6</v>
       </c>
       <c r="K72">
-        <v>149</v>
+        <v>761</v>
       </c>
       <c r="L72" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M72" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="N72" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C73">
-        <v>578</v>
+        <v>40484.6</v>
       </c>
       <c r="D73">
-        <v>313</v>
+        <v>6946.2</v>
       </c>
       <c r="E73">
-        <v>6853.5</v>
+        <v>506054.4</v>
       </c>
       <c r="F73">
-        <v>3521.4</v>
+        <v>109487.8</v>
       </c>
       <c r="G73">
-        <v>11.86</v>
+        <v>12.5</v>
       </c>
       <c r="H73">
-        <v>0.22</v>
+        <v>0.48</v>
       </c>
       <c r="I73">
-        <v>2706032</v>
+        <v>19312377</v>
       </c>
       <c r="J73">
-        <v>253.3</v>
+        <v>2620.4</v>
       </c>
       <c r="K73">
-        <v>130.1</v>
+        <v>566.9</v>
       </c>
       <c r="L73" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M73" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="N73" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4647,131 +4545,131 @@
         <v>38</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C74">
-        <v>767.9999999999999</v>
+        <v>4482.2</v>
       </c>
       <c r="D74">
-        <v>527.2</v>
+        <v>2320.8</v>
       </c>
       <c r="E74">
-        <v>10676.7</v>
+        <v>55872.4</v>
       </c>
       <c r="F74">
-        <v>7230.699999999999</v>
+        <v>30787.5</v>
       </c>
       <c r="G74">
-        <v>13.9</v>
+        <v>12.47</v>
       </c>
       <c r="H74">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I74">
-        <v>5367374</v>
+        <v>3548397</v>
       </c>
       <c r="J74">
-        <v>198.9</v>
+        <v>1574.6</v>
       </c>
       <c r="K74">
-        <v>134.7</v>
+        <v>867.6</v>
       </c>
       <c r="L74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M74" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="N74" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C75">
-        <v>37303.8</v>
+        <v>7764.6</v>
       </c>
       <c r="D75">
-        <v>6607.4</v>
+        <v>2289.9</v>
       </c>
       <c r="E75">
-        <v>381506.1</v>
+        <v>102698.7</v>
       </c>
       <c r="F75">
-        <v>77582.8</v>
+        <v>36762.1</v>
       </c>
       <c r="G75">
-        <v>10.23</v>
+        <v>13.23</v>
       </c>
       <c r="H75">
-        <v>0.22</v>
+        <v>0.64</v>
       </c>
       <c r="I75">
-        <v>19570109</v>
+        <v>3371780</v>
       </c>
       <c r="J75">
-        <v>1949.4</v>
+        <v>3045.8</v>
       </c>
       <c r="K75">
-        <v>396.4</v>
+        <v>1090.3</v>
       </c>
       <c r="L75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M75" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N75" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C76">
-        <v>45326.60000000001</v>
+        <v>12201.4</v>
       </c>
       <c r="D76">
-        <v>6514.8</v>
+        <v>3804</v>
       </c>
       <c r="E76">
-        <v>527412.3999999999</v>
+        <v>160560.7</v>
       </c>
       <c r="F76">
-        <v>86630.40000000001</v>
+        <v>56456.9</v>
       </c>
       <c r="G76">
-        <v>11.64</v>
+        <v>13.16</v>
       </c>
       <c r="H76">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I76">
-        <v>18365622</v>
+        <v>6920177</v>
       </c>
       <c r="J76">
-        <v>2871.7</v>
+        <v>2320.2</v>
       </c>
       <c r="K76">
-        <v>471.7</v>
+        <v>815.8</v>
       </c>
       <c r="L76" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M76" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="N76" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4779,131 +4677,131 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C77">
-        <v>82605.60000000001</v>
+        <v>3185.5</v>
       </c>
       <c r="D77">
-        <v>12854.7</v>
+        <v>1426.5</v>
       </c>
       <c r="E77">
-        <v>947742.1999999998</v>
+        <v>39271.7</v>
       </c>
       <c r="F77">
-        <v>164523.4</v>
+        <v>24232.6</v>
       </c>
       <c r="G77">
-        <v>11.47</v>
+        <v>12.33</v>
       </c>
       <c r="H77">
-        <v>0.18</v>
+        <v>1.44</v>
       </c>
       <c r="I77">
-        <v>37935731</v>
+        <v>2791028</v>
       </c>
       <c r="J77">
-        <v>2498.3</v>
+        <v>1407.1</v>
       </c>
       <c r="K77">
-        <v>433.7</v>
+        <v>868.2</v>
       </c>
       <c r="L77" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M77" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="N77" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C78">
-        <v>7731</v>
+        <v>3383.2</v>
       </c>
       <c r="D78">
-        <v>1417.1</v>
+        <v>1576.6</v>
       </c>
       <c r="E78">
-        <v>61722.5</v>
+        <v>40016.5</v>
       </c>
       <c r="F78">
-        <v>15248.7</v>
+        <v>29449.5</v>
       </c>
       <c r="G78">
-        <v>7.98</v>
+        <v>11.83</v>
       </c>
       <c r="H78">
-        <v>0.43</v>
+        <v>2.18</v>
       </c>
       <c r="I78">
-        <v>5428401</v>
+        <v>2664476</v>
       </c>
       <c r="J78">
-        <v>1137</v>
+        <v>1501.9</v>
       </c>
       <c r="K78">
-        <v>280.9</v>
+        <v>1105.3</v>
       </c>
       <c r="L78" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M78" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="N78" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C79">
-        <v>6631.6</v>
+        <v>6547.7</v>
       </c>
       <c r="D79">
-        <v>1443</v>
+        <v>2288.4</v>
       </c>
       <c r="E79">
-        <v>65159.4</v>
+        <v>80557.39999999999</v>
       </c>
       <c r="F79">
-        <v>17231.4</v>
+        <v>41543.9</v>
       </c>
       <c r="G79">
-        <v>9.83</v>
+        <v>12.3</v>
       </c>
       <c r="H79">
-        <v>0.37</v>
+        <v>1.52</v>
       </c>
       <c r="I79">
-        <v>4855173</v>
+        <v>5455504</v>
       </c>
       <c r="J79">
-        <v>1342.1</v>
+        <v>1476.6</v>
       </c>
       <c r="K79">
-        <v>354.9</v>
+        <v>761.5</v>
       </c>
       <c r="L79" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M79" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="N79" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4911,131 +4809,131 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C80">
-        <v>14354.6</v>
+        <v>1974.3</v>
       </c>
       <c r="D80">
-        <v>2628.3</v>
+        <v>639.6</v>
       </c>
       <c r="E80">
-        <v>129446.9</v>
+        <v>17585.7</v>
       </c>
       <c r="F80">
-        <v>27331</v>
+        <v>10021.3</v>
       </c>
       <c r="G80">
-        <v>9.02</v>
+        <v>8.91</v>
       </c>
       <c r="H80">
-        <v>0.21</v>
+        <v>1.65</v>
       </c>
       <c r="I80">
-        <v>10283574</v>
+        <v>1043845</v>
       </c>
       <c r="J80">
-        <v>1258.8</v>
+        <v>1684.7</v>
       </c>
       <c r="K80">
-        <v>265.8</v>
+        <v>960</v>
       </c>
       <c r="L80" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M80" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="N80" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C81">
-        <v>16448.8</v>
+        <v>1667.3</v>
       </c>
       <c r="D81">
-        <v>3285.7</v>
+        <v>842.5</v>
       </c>
       <c r="E81">
-        <v>183274.3</v>
+        <v>19515.8</v>
       </c>
       <c r="F81">
-        <v>36133.3</v>
+        <v>14770.3</v>
       </c>
       <c r="G81">
-        <v>11.14</v>
+        <v>11.71</v>
       </c>
       <c r="H81">
-        <v>0.02</v>
+        <v>1.95</v>
       </c>
       <c r="I81">
-        <v>9857376</v>
+        <v>1050156</v>
       </c>
       <c r="J81">
-        <v>1859.3</v>
+        <v>1858.4</v>
       </c>
       <c r="K81">
-        <v>366.6</v>
+        <v>1406.5</v>
       </c>
       <c r="L81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M81" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="N81" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C82">
-        <v>23960.6</v>
+        <v>3619.5</v>
       </c>
       <c r="D82">
-        <v>3552.4</v>
+        <v>1086.2</v>
       </c>
       <c r="E82">
-        <v>282223.9</v>
+        <v>37352.4</v>
       </c>
       <c r="F82">
-        <v>44743.1</v>
+        <v>18444.5</v>
       </c>
       <c r="G82">
-        <v>11.78</v>
+        <v>10.32</v>
       </c>
       <c r="H82">
-        <v>0.1</v>
+        <v>1.54</v>
       </c>
       <c r="I82">
-        <v>9455001</v>
+        <v>2094001</v>
       </c>
       <c r="J82">
-        <v>2984.9</v>
+        <v>1783.8</v>
       </c>
       <c r="K82">
-        <v>473.2</v>
+        <v>880.8</v>
       </c>
       <c r="L82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M82" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="N82" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5043,131 +4941,131 @@
         <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>40409.4</v>
+        <v>38200.3</v>
       </c>
       <c r="D83">
-        <v>6607.7</v>
+        <v>5465</v>
       </c>
       <c r="E83">
-        <v>485440.7</v>
+        <v>366253.4</v>
       </c>
       <c r="F83">
-        <v>79512.20000000001</v>
+        <v>76230.7</v>
       </c>
       <c r="G83">
-        <v>12.01</v>
+        <v>9.59</v>
       </c>
       <c r="H83">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="I83">
-        <v>19312377</v>
+        <v>24103540</v>
       </c>
       <c r="J83">
-        <v>2513.6</v>
+        <v>1519.5</v>
       </c>
       <c r="K83">
-        <v>411.7</v>
+        <v>316.3</v>
       </c>
       <c r="L83" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M83" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="N83" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C84">
-        <v>3581.8</v>
+        <v>37913.6</v>
       </c>
       <c r="D84">
-        <v>1217.2</v>
+        <v>5188.6</v>
       </c>
       <c r="E84">
-        <v>38529.10000000001</v>
+        <v>432135</v>
       </c>
       <c r="F84">
-        <v>13466.6</v>
+        <v>83848.8</v>
       </c>
       <c r="G84">
-        <v>10.76</v>
+        <v>11.4</v>
       </c>
       <c r="H84">
-        <v>0.07000000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I84">
-        <v>3548397</v>
+        <v>23179515</v>
       </c>
       <c r="J84">
-        <v>1085.8</v>
+        <v>1864.3</v>
       </c>
       <c r="K84">
-        <v>379.5</v>
+        <v>361.7</v>
       </c>
       <c r="L84" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M84" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="N84" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C85">
-        <v>6797.999999999999</v>
+        <v>76092.7</v>
       </c>
       <c r="D85">
-        <v>1826.1</v>
+        <v>9096.4</v>
       </c>
       <c r="E85">
-        <v>81738.39999999999</v>
+        <v>815899.6</v>
       </c>
       <c r="F85">
-        <v>24171.3</v>
+        <v>127861.3</v>
       </c>
       <c r="G85">
-        <v>12.02</v>
+        <v>10.72</v>
       </c>
       <c r="H85">
-        <v>0.26</v>
+        <v>0.36</v>
       </c>
       <c r="I85">
-        <v>3371780</v>
+        <v>47283055</v>
       </c>
       <c r="J85">
-        <v>2424.2</v>
+        <v>1725.6</v>
       </c>
       <c r="K85">
-        <v>716.9</v>
+        <v>270.4</v>
       </c>
       <c r="L85" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M85" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="N85" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5175,131 +5073,131 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C86">
-        <v>10149.6</v>
+        <v>4124.2</v>
       </c>
       <c r="D86">
-        <v>2669.1</v>
+        <v>1581.8</v>
       </c>
       <c r="E86">
-        <v>120014.1</v>
+        <v>33954.5</v>
       </c>
       <c r="F86">
-        <v>35722.2</v>
+        <v>22132.7</v>
       </c>
       <c r="G86">
-        <v>11.82</v>
+        <v>8.23</v>
       </c>
       <c r="H86">
-        <v>0.33</v>
+        <v>1.6</v>
       </c>
       <c r="I86">
-        <v>6920177</v>
+        <v>5130956</v>
       </c>
       <c r="J86">
-        <v>1734.3</v>
+        <v>661.8</v>
       </c>
       <c r="K86">
-        <v>516.2</v>
+        <v>431.4</v>
       </c>
       <c r="L86" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M86" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="N86" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C87">
-        <v>3049.8</v>
+        <v>5439.5</v>
       </c>
       <c r="D87">
-        <v>660.0999999999999</v>
+        <v>1817</v>
       </c>
       <c r="E87">
-        <v>34360.2</v>
+        <v>62988.5</v>
       </c>
       <c r="F87">
-        <v>10003.5</v>
+        <v>30319.8</v>
       </c>
       <c r="G87">
-        <v>11.27</v>
+        <v>11.58</v>
       </c>
       <c r="H87">
-        <v>0.6899999999999999</v>
+        <v>1.28</v>
       </c>
       <c r="I87">
-        <v>2791028</v>
+        <v>5193983</v>
       </c>
       <c r="J87">
-        <v>1231.1</v>
+        <v>1212.7</v>
       </c>
       <c r="K87">
-        <v>358.4</v>
+        <v>583.7</v>
       </c>
       <c r="L87" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M87" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="N87" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C88">
-        <v>3654.8</v>
+        <v>9476.5</v>
       </c>
       <c r="D88">
-        <v>512.3</v>
+        <v>2771.3</v>
       </c>
       <c r="E88">
-        <v>38994.4</v>
+        <v>95760.29999999999</v>
       </c>
       <c r="F88">
-        <v>7280</v>
+        <v>43387.6</v>
       </c>
       <c r="G88">
-        <v>10.67</v>
+        <v>10.11</v>
       </c>
       <c r="H88">
-        <v>0.43</v>
+        <v>1.25</v>
       </c>
       <c r="I88">
-        <v>2664476</v>
+        <v>10324939</v>
       </c>
       <c r="J88">
-        <v>1463.5</v>
+        <v>927.5</v>
       </c>
       <c r="K88">
-        <v>273.2</v>
+        <v>420.2</v>
       </c>
       <c r="L88" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M88" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="N88" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5307,571 +5205,131 @@
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C89">
-        <v>6661.199999999999</v>
+        <v>4090.8</v>
       </c>
       <c r="D89">
-        <v>953.9000000000001</v>
+        <v>1460.3</v>
       </c>
       <c r="E89">
-        <v>74381.8</v>
+        <v>30523</v>
       </c>
       <c r="F89">
-        <v>11753.5</v>
+        <v>24245.8</v>
       </c>
       <c r="G89">
-        <v>11.17</v>
+        <v>7.46</v>
       </c>
       <c r="H89">
-        <v>0.14</v>
+        <v>2.41</v>
       </c>
       <c r="I89">
-        <v>5455504</v>
+        <v>4186812</v>
       </c>
       <c r="J89">
-        <v>1363.4</v>
+        <v>729</v>
       </c>
       <c r="K89">
-        <v>215.4</v>
+        <v>579.1</v>
       </c>
       <c r="L89" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M89" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="N89" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C90">
-        <v>2183.8</v>
+        <v>5029.2</v>
       </c>
       <c r="D90">
-        <v>355.8</v>
+        <v>1601.4</v>
       </c>
       <c r="E90">
-        <v>16728</v>
+        <v>51430.1</v>
       </c>
       <c r="F90">
-        <v>4050</v>
+        <v>31546.2</v>
       </c>
       <c r="G90">
-        <v>7.66</v>
+        <v>10.23</v>
       </c>
       <c r="H90">
-        <v>0.52</v>
+        <v>2.28</v>
       </c>
       <c r="I90">
-        <v>1043845</v>
+        <v>4190064</v>
       </c>
       <c r="J90">
-        <v>1602.5</v>
+        <v>1227.4</v>
       </c>
       <c r="K90">
-        <v>388</v>
+        <v>752.9</v>
       </c>
       <c r="L90" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M90" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="N90" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C91">
-        <v>1950.8</v>
+        <v>9071.6</v>
       </c>
       <c r="D91">
-        <v>350.1</v>
+        <v>2437.5</v>
       </c>
       <c r="E91">
-        <v>18560.5</v>
+        <v>81711.60000000001</v>
       </c>
       <c r="F91">
-        <v>5002.200000000001</v>
+        <v>44771.8</v>
       </c>
       <c r="G91">
-        <v>9.51</v>
+        <v>9.01</v>
       </c>
       <c r="H91">
-        <v>0.73</v>
+        <v>1.98</v>
       </c>
       <c r="I91">
-        <v>1050156</v>
+        <v>8376876</v>
       </c>
       <c r="J91">
-        <v>1767.4</v>
+        <v>975.4</v>
       </c>
       <c r="K91">
-        <v>476.3</v>
+        <v>534.5</v>
       </c>
       <c r="L91" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M91" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="N91" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
-      <c r="A92" t="s">
-        <v>44</v>
-      </c>
-      <c r="B92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C92">
-        <v>4122.4</v>
-      </c>
-      <c r="D92">
-        <v>589</v>
-      </c>
-      <c r="E92">
-        <v>35664.3</v>
-      </c>
-      <c r="F92">
-        <v>7026.4</v>
-      </c>
-      <c r="G92">
-        <v>8.65</v>
-      </c>
-      <c r="H92">
-        <v>0.41</v>
-      </c>
-      <c r="I92">
-        <v>2094001</v>
-      </c>
-      <c r="J92">
-        <v>1703.2</v>
-      </c>
-      <c r="K92">
-        <v>335.5</v>
-      </c>
-      <c r="L92" t="s">
-        <v>141</v>
-      </c>
-      <c r="M92" t="s">
-        <v>241</v>
-      </c>
-      <c r="N92" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14">
-      <c r="A93" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" t="s">
-        <v>48</v>
-      </c>
-      <c r="C93">
-        <v>39333</v>
-      </c>
-      <c r="D93">
-        <v>4956.8</v>
-      </c>
-      <c r="E93">
-        <v>350345.8</v>
-      </c>
-      <c r="F93">
-        <v>54610.60000000001</v>
-      </c>
-      <c r="G93">
-        <v>8.91</v>
-      </c>
-      <c r="H93">
-        <v>0.23</v>
-      </c>
-      <c r="I93">
-        <v>24103540</v>
-      </c>
-      <c r="J93">
-        <v>1453.5</v>
-      </c>
-      <c r="K93">
-        <v>226.6</v>
-      </c>
-      <c r="L93" t="s">
-        <v>142</v>
-      </c>
-      <c r="M93" t="s">
-        <v>242</v>
-      </c>
-      <c r="N93" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14">
-      <c r="A94" t="s">
-        <v>45</v>
-      </c>
-      <c r="B94" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94">
-        <v>39228.2</v>
-      </c>
-      <c r="D94">
-        <v>5166.700000000001</v>
-      </c>
-      <c r="E94">
-        <v>406580.8</v>
-      </c>
-      <c r="F94">
-        <v>59430.10000000001</v>
-      </c>
-      <c r="G94">
-        <v>10.36</v>
-      </c>
-      <c r="H94">
-        <v>0.14</v>
-      </c>
-      <c r="I94">
-        <v>23179515</v>
-      </c>
-      <c r="J94">
-        <v>1754.1</v>
-      </c>
-      <c r="K94">
-        <v>256.4</v>
-      </c>
-      <c r="L94" t="s">
-        <v>143</v>
-      </c>
-      <c r="M94" t="s">
-        <v>243</v>
-      </c>
-      <c r="N94" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
-      <c r="A95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95">
-        <v>78535.2</v>
-      </c>
-      <c r="D95">
-        <v>9621.200000000001</v>
-      </c>
-      <c r="E95">
-        <v>772956.7999999999</v>
-      </c>
-      <c r="F95">
-        <v>110853</v>
-      </c>
-      <c r="G95">
-        <v>9.84</v>
-      </c>
-      <c r="H95">
-        <v>0.19</v>
-      </c>
-      <c r="I95">
-        <v>47283055</v>
-      </c>
-      <c r="J95">
-        <v>1634.7</v>
-      </c>
-      <c r="K95">
-        <v>234.4</v>
-      </c>
-      <c r="L95" t="s">
-        <v>144</v>
-      </c>
-      <c r="M95" t="s">
-        <v>244</v>
-      </c>
-      <c r="N95" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
-      <c r="A96" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96">
-        <v>3434.6</v>
-      </c>
-      <c r="D96">
-        <v>717.6999999999999</v>
-      </c>
-      <c r="E96">
-        <v>29796.4</v>
-      </c>
-      <c r="F96">
-        <v>6568</v>
-      </c>
-      <c r="G96">
-        <v>8.68</v>
-      </c>
-      <c r="H96">
-        <v>0.08</v>
-      </c>
-      <c r="I96">
-        <v>5130956</v>
-      </c>
-      <c r="J96">
-        <v>580.7</v>
-      </c>
-      <c r="K96">
-        <v>128</v>
-      </c>
-      <c r="L96" t="s">
-        <v>145</v>
-      </c>
-      <c r="M96" t="s">
-        <v>245</v>
-      </c>
-      <c r="N96" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
-      <c r="A97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97">
-        <v>4957.2</v>
-      </c>
-      <c r="D97">
-        <v>662.9</v>
-      </c>
-      <c r="E97">
-        <v>44532.90000000001</v>
-      </c>
-      <c r="F97">
-        <v>10055.2</v>
-      </c>
-      <c r="G97">
-        <v>8.98</v>
-      </c>
-      <c r="H97">
-        <v>0.73</v>
-      </c>
-      <c r="I97">
-        <v>5193983</v>
-      </c>
-      <c r="J97">
-        <v>857.4</v>
-      </c>
-      <c r="K97">
-        <v>193.6</v>
-      </c>
-      <c r="L97" t="s">
-        <v>146</v>
-      </c>
-      <c r="M97" t="s">
-        <v>246</v>
-      </c>
-      <c r="N97" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
-      <c r="A98" t="s">
-        <v>46</v>
-      </c>
-      <c r="B98" t="s">
-        <v>50</v>
-      </c>
-      <c r="C98">
-        <v>8278.200000000001</v>
-      </c>
-      <c r="D98">
-        <v>1141.2</v>
-      </c>
-      <c r="E98">
-        <v>71225.3</v>
-      </c>
-      <c r="F98">
-        <v>13237.5</v>
-      </c>
-      <c r="G98">
-        <v>8.6</v>
-      </c>
-      <c r="H98">
-        <v>0.37</v>
-      </c>
-      <c r="I98">
-        <v>10324939</v>
-      </c>
-      <c r="J98">
-        <v>689.8</v>
-      </c>
-      <c r="K98">
-        <v>128.2</v>
-      </c>
-      <c r="L98" t="s">
-        <v>147</v>
-      </c>
-      <c r="M98" t="s">
-        <v>247</v>
-      </c>
-      <c r="N98" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
-      <c r="A99" t="s">
-        <v>47</v>
-      </c>
-      <c r="B99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99">
-        <v>4818.2</v>
-      </c>
-      <c r="D99">
-        <v>541.5</v>
-      </c>
-      <c r="E99">
-        <v>34639.8</v>
-      </c>
-      <c r="F99">
-        <v>5693.400000000001</v>
-      </c>
-      <c r="G99">
-        <v>7.19</v>
-      </c>
-      <c r="H99">
-        <v>0.34</v>
-      </c>
-      <c r="I99">
-        <v>4186812</v>
-      </c>
-      <c r="J99">
-        <v>827.4</v>
-      </c>
-      <c r="K99">
-        <v>136</v>
-      </c>
-      <c r="L99" t="s">
-        <v>148</v>
-      </c>
-      <c r="M99" t="s">
-        <v>248</v>
-      </c>
-      <c r="N99" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
-      <c r="A100" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100">
-        <v>5657</v>
-      </c>
-      <c r="D100">
-        <v>723.2</v>
-      </c>
-      <c r="E100">
-        <v>48360.4</v>
-      </c>
-      <c r="F100">
-        <v>11630.8</v>
-      </c>
-      <c r="G100">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="H100">
-        <v>0.85</v>
-      </c>
-      <c r="I100">
-        <v>4190064</v>
-      </c>
-      <c r="J100">
-        <v>1154.2</v>
-      </c>
-      <c r="K100">
-        <v>277.6</v>
-      </c>
-      <c r="L100" t="s">
-        <v>149</v>
-      </c>
-      <c r="M100" t="s">
-        <v>249</v>
-      </c>
-      <c r="N100" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
-      <c r="A101" t="s">
-        <v>47</v>
-      </c>
-      <c r="B101" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101">
-        <v>10370.6</v>
-      </c>
-      <c r="D101">
-        <v>1174.7</v>
-      </c>
-      <c r="E101">
-        <v>81204.60000000001</v>
-      </c>
-      <c r="F101">
-        <v>16295.7</v>
-      </c>
-      <c r="G101">
-        <v>7.83</v>
-      </c>
-      <c r="H101">
-        <v>0.62</v>
-      </c>
-      <c r="I101">
-        <v>8376876</v>
-      </c>
-      <c r="J101">
-        <v>969.4</v>
-      </c>
-      <c r="K101">
-        <v>194.5</v>
-      </c>
-      <c r="L101" t="s">
-        <v>150</v>
-      </c>
-      <c r="M101" t="s">
-        <v>250</v>
-      </c>
-      <c r="N101" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
